--- a/charts/ChartPlan.xlsx
+++ b/charts/ChartPlan.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amatoday-my.sharepoint.com/personal/mapeyton_ama-assn_org/Documents/Documents/R/NCCS/htmltest/charts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MattP\Desktop\Capstone\charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="284" documentId="8_{4861B6A9-C3D0-43F6-B43B-1AFA7788EF12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CC3E731D-FB16-43D1-BD23-A5D86455E6DA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDF29B5-7E4B-4DBF-93E2-D8AB20F6A4FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="0" windowWidth="23820" windowHeight="15495" activeTab="3" xr2:uid="{0C459248-39B4-4EA6-A46F-BB1EB6E6E23D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{0C459248-39B4-4EA6-A46F-BB1EB6E6E23D}"/>
   </bookViews>
   <sheets>
     <sheet name="Scratch" sheetId="1" r:id="rId1"/>
     <sheet name="Draft" sheetId="2" r:id="rId2"/>
     <sheet name="Figure 1 Chart Drafts" sheetId="3" r:id="rId3"/>
     <sheet name="Figure 2 Chart Drafts" sheetId="4" r:id="rId4"/>
+    <sheet name="Figure 3 Chart Drafts" sheetId="5" r:id="rId5"/>
+    <sheet name="Figure 3 Small Multiples" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="60">
   <si>
     <t>Figure 1.1</t>
   </si>
@@ -209,14 +211,21 @@
   <si>
     <t>Reporting Public Charities</t>
   </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -360,22 +369,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -396,9 +403,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -429,9 +433,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -439,12 +440,28 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -832,6 +849,375 @@
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup orientation="landscape" verticalDpi="0"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Health</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 3 Small Multiples'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Figure 3 Small Multiples'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 3 Small Multiples'!$B$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>817.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0.00">
+                  <c:v>1160.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-979D-4AC5-8947-D4989FAFD0BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 3 Small Multiples'!$E$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Expenses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 3 Small Multiples'!$E$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>775.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>944.6</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0.00">
+                  <c:v>1102.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-979D-4AC5-8947-D4989FAFD0BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 3 Small Multiples'!$H$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Assets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 3 Small Multiples'!$H$8:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1238.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1574.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-979D-4AC5-8947-D4989FAFD0BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1492042144"/>
+        <c:axId val="1463163248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1492042144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1463163248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1463163248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Billions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="[$$-409]#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1492042144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2856,6 +3242,3649 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Draft!$A$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Arts</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Draft!$B$49:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>34483</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29409</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31429</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B3E0-4DF2-B079-574BA4C0F6EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Draft!$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Education</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Draft!$B$50:$D$50</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>56030</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50387</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54214</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B3E0-4DF2-B079-574BA4C0F6EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Draft!$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Higher education</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Draft!$B$51:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1869</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2153</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B3E0-4DF2-B079-574BA4C0F6EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Draft!$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Other education</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Draft!$B$52:$D$52</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>54161</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48347</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52061</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B3E0-4DF2-B079-574BA4C0F6EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Draft!$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Environment and animals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Draft!$B$53:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>12721</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12715</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14591</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B3E0-4DF2-B079-574BA4C0F6EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Draft!$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Health</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Draft!$B$54:$D$54</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>40774</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38840</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38861</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B3E0-4DF2-B079-574BA4C0F6EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Draft!$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hospitals and primary care facilities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Draft!$B$55:$D$55</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7229</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B3E0-4DF2-B079-574BA4C0F6EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Draft!$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Other health care</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Draft!$B$56:$D$56</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>33624</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31611</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31748</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-B3E0-4DF2-B079-574BA4C0F6EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Draft!$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Human services</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Draft!$B$57:$D$57</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>105938</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103451</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-B3E0-4DF2-B079-574BA4C0F6EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Draft!$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>International</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Draft!$B$58:$D$58</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5691</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6066</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6927</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-B3E0-4DF2-B079-574BA4C0F6EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Draft!$A$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Other public and social benefit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Draft!$B$59:$D$59</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>38381</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34595</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37478</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-B3E0-4DF2-B079-574BA4C0F6EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Draft!$A$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Religion related</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Draft!$B$60:$D$60</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18761</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20443</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-B3E0-4DF2-B079-574BA4C0F6EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1393544576"/>
+        <c:axId val="1243282944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1393544576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1243282944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1243282944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1393544576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>% Change from 2005-2015 by Type </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.3320536425484126E-2"/>
+          <c:y val="6.8876498749588941E-2"/>
+          <c:w val="0.45255334868464547"/>
+          <c:h val="0.88804408746312113"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 3 Chart Drafts'!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>All public charities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-51BF-4EEE-B112-E853CD502813}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Figure 3 Chart Drafts'!$K$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 3 Chart Drafts'!$K$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2431690516737415E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-51BF-4EEE-B112-E853CD502813}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 3 Chart Drafts'!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Arts</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001C-51BF-4EEE-B112-E853CD502813}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Figure 3 Chart Drafts'!$K$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 3 Chart Drafts'!$K$4:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.7171402208151708E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-51BF-4EEE-B112-E853CD502813}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 3 Chart Drafts'!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Education</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-51BF-4EEE-B112-E853CD502813}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Figure 3 Chart Drafts'!$K$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 3 Chart Drafts'!$K$5:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.3496882724019628E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-51BF-4EEE-B112-E853CD502813}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 3 Chart Drafts'!$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Higher education</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-51BF-4EEE-B112-E853CD502813}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Figure 3 Chart Drafts'!$K$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 3 Chart Drafts'!$K$6:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13190896423594983</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-51BF-4EEE-B112-E853CD502813}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 3 Chart Drafts'!$J$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Other education</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-51BF-4EEE-B112-E853CD502813}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Figure 3 Chart Drafts'!$K$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 3 Chart Drafts'!$K$7:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.0337296632796144E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-51BF-4EEE-B112-E853CD502813}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 3 Chart Drafts'!$J$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Environment and animals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-51BF-4EEE-B112-E853CD502813}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.3687911652552865E-3"/>
+                  <c:y val="2.0427109362239911E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.27364705882352947"/>
+                      <c:h val="4.6369538252284598E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-51BF-4EEE-B112-E853CD502813}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Figure 3 Chart Drafts'!$K$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 3 Chart Drafts'!$K$8:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12816119525735042</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-51BF-4EEE-B112-E853CD502813}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 3 Chart Drafts'!$J$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Health</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-51BF-4EEE-B112-E853CD502813}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Figure 3 Chart Drafts'!$K$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 3 Chart Drafts'!$K$9:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.9226731170067678E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-51BF-4EEE-B112-E853CD502813}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 3 Chart Drafts'!$J$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hospitals and primary care facilities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-51BF-4EEE-B112-E853CD502813}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.9207165095600728E-3"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l">
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.34647504910942734"/>
+                      <c:h val="4.6369538252284598E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-51BF-4EEE-B112-E853CD502813}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Figure 3 Chart Drafts'!$K$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 3 Chart Drafts'!$K$10:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.2017432869394071E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-51BF-4EEE-B112-E853CD502813}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 3 Chart Drafts'!$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Other health care</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-51BF-4EEE-B112-E853CD502813}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Figure 3 Chart Drafts'!$K$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 3 Chart Drafts'!$K$11:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.9090336399143253E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-51BF-4EEE-B112-E853CD502813}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 3 Chart Drafts'!$J$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Human services</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-51BF-4EEE-B112-E853CD502813}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Figure 3 Chart Drafts'!$K$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 3 Chart Drafts'!$K$12:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3889495582169834E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-51BF-4EEE-B112-E853CD502813}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 3 Chart Drafts'!$J$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>International</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-51BF-4EEE-B112-E853CD502813}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Figure 3 Chart Drafts'!$K$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 3 Chart Drafts'!$K$13:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17843222174101342</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-51BF-4EEE-B112-E853CD502813}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 3 Chart Drafts'!$J$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Other public and social benefit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-51BF-4EEE-B112-E853CD502813}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.1107191831032076E-3"/>
+                  <c:y val="1.8570099420218101E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.28249815942818468"/>
+                      <c:h val="4.6369538252284598E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-51BF-4EEE-B112-E853CD502813}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Figure 3 Chart Drafts'!$K$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 3 Chart Drafts'!$K$14:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.4094135225999253E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-51BF-4EEE-B112-E853CD502813}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 3 Chart Drafts'!$J$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Religion related</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-51BF-4EEE-B112-E853CD502813}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Figure 3 Chart Drafts'!$K$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 3 Chart Drafts'!$K$15:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2277552218363248E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-51BF-4EEE-B112-E853CD502813}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="r"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1462286128"/>
+        <c:axId val="1400445712"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1462286128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1400445712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1400445712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1462286128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t># of Public Charities in 2015 by Type</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 3 Chart Drafts'!$AF$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Figure 3 Chart Drafts'!$AE$3:$AE$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Higher education</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>International</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hospitals and primary care facilities</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Environment and animals</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Religion related</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Arts</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other health care</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Other public and social benefit</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Health</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Other education</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Education</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Human services</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 3 Chart Drafts'!$AF$3:$AF$14</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2153</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6927</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7113</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14591</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20443</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31429</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31748</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37478</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38861</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52061</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54214</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-38F7-4CE5-A625-254116DE680C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="83"/>
+        <c:axId val="1492040944"/>
+        <c:axId val="1463119152"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1492040944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1463119152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1463119152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1492040944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Arts</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 3 Small Multiples'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Figure 3 Small Multiples'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 3 Small Multiples'!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>31.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-A5A0-4C58-B3E0-8CF5930D58D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 3 Small Multiples'!$E$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Expenses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 3 Small Multiples'!$E$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>27.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.700000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001B-A5A0-4C58-B3E0-8CF5930D58D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 3 Small Multiples'!$H$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Assets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 3 Small Multiples'!$H$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>98.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001C-A5A0-4C58-B3E0-8CF5930D58D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1492042144"/>
+        <c:axId val="1463163248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1492042144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1463163248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1463163248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1800"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Billions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="[$$-409]#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1492042144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3056,6 +7085,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5552,6 +9701,1543 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5782,6 +11468,216 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A4A6EC3-D4D7-4947-865E-3C12F04F0C23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07BDCA21-3355-4677-A956-BF617279C519}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44F47325-3C17-4773-9F6E-D099AC7B06F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADBFD3C7-5C5B-4D45-831E-0F3EB0C653C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F591F35A-AB44-46C5-B306-1F3442E9336D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6B8EE173-36A0-40AB-BF5D-3500CF8082AF}" name="Table1" displayName="Table1" ref="AE2:AF14" totalsRowShown="0">
+  <autoFilter ref="AE2:AF14" xr:uid="{1466E4F8-8320-40A8-9835-2F447FBED1D7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AE3:AF14">
+    <sortCondition ref="AF2:AF14"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{376E48EF-8D9A-4335-974B-3279C1441D78}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{63682926-51DF-4053-B97A-F7D37FA9267C}" name="2015" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6351,118 +12247,118 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="33">
+      <c r="B32" s="30">
         <v>2015</v>
       </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="33" t="s">
+      <c r="C32" s="31"/>
+      <c r="D32" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33">
+      <c r="A33" s="30"/>
+      <c r="B33" s="30">
         <v>2010</v>
       </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="33" t="s">
+      <c r="C33" s="31"/>
+      <c r="D33" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30">
         <v>2005</v>
       </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="33" t="s">
+      <c r="C34" s="31"/>
+      <c r="D34" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="33"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="30"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="33">
+      <c r="B36" s="30">
         <v>2015</v>
       </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="33" t="s">
+      <c r="C36" s="31"/>
+      <c r="D36" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33">
+      <c r="A37" s="30"/>
+      <c r="B37" s="30">
         <v>2010</v>
       </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="33" t="s">
+      <c r="C37" s="31"/>
+      <c r="D37" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33">
+      <c r="A38" s="30"/>
+      <c r="B38" s="30">
         <v>2005</v>
       </c>
-      <c r="C38" s="34"/>
-      <c r="D38" s="33" t="s">
+      <c r="C38" s="31"/>
+      <c r="D38" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="33">
+      <c r="B40" s="30">
         <v>2015</v>
       </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="33" t="s">
+      <c r="C40" s="31"/>
+      <c r="D40" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33">
+      <c r="A41" s="30"/>
+      <c r="B41" s="30">
         <v>2010</v>
       </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="33" t="s">
+      <c r="C41" s="31"/>
+      <c r="D41" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33">
+      <c r="A42" s="30"/>
+      <c r="B42" s="30">
         <v>2005</v>
       </c>
-      <c r="C42" s="34"/>
-      <c r="D42" s="33" t="s">
+      <c r="C42" s="31"/>
+      <c r="D42" s="30" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6478,424 +12374,424 @@
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="16" t="s">
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
     </row>
     <row r="46" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9" t="s">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H46" s="9" t="s">
+      <c r="H46" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I46" s="9" t="s">
+      <c r="I46" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="22">
+      <c r="B47" s="20">
         <v>314744</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="21">
         <v>100</v>
       </c>
-      <c r="D47" s="24">
+      <c r="D47" s="22">
         <v>1978.6</v>
       </c>
-      <c r="E47" s="24">
+      <c r="E47" s="22">
         <v>1838.9</v>
       </c>
-      <c r="F47" s="24">
+      <c r="F47" s="22">
         <v>3668.6</v>
       </c>
-      <c r="G47" s="23">
+      <c r="G47" s="21">
         <v>100</v>
       </c>
-      <c r="H47" s="23">
+      <c r="H47" s="21">
         <v>100</v>
       </c>
-      <c r="I47" s="23">
+      <c r="I47" s="21">
         <v>100.1</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B48" s="18">
+      <c r="B48" s="16">
         <v>31429</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="17">
         <v>10</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D48" s="18">
         <v>40.6</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="18">
         <v>35.700000000000003</v>
       </c>
-      <c r="F48" s="20">
+      <c r="F48" s="18">
         <v>127.9</v>
       </c>
-      <c r="G48" s="19">
+      <c r="G48" s="17">
         <v>2.1</v>
       </c>
-      <c r="H48" s="19">
+      <c r="H48" s="17">
         <v>1.9</v>
       </c>
-      <c r="I48" s="19">
+      <c r="I48" s="17">
         <v>3.5</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="11">
         <v>54214</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="12">
         <v>17.2</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D49" s="14">
         <v>354.3</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="14">
         <v>315.5</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F49" s="13">
         <v>1128.8</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G49" s="12">
         <v>17.899999999999999</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H49" s="12">
         <v>17.2</v>
       </c>
-      <c r="I49" s="13">
+      <c r="I49" s="12">
         <v>30.8</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="11">
         <v>2153</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="12">
         <v>0.7</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D50" s="14">
         <v>230.9</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E50" s="14">
         <v>207.4</v>
       </c>
-      <c r="F50" s="15">
+      <c r="F50" s="14">
         <v>736.3</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G50" s="12">
         <v>11.7</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H50" s="12">
         <v>11.3</v>
       </c>
-      <c r="I50" s="13">
+      <c r="I50" s="12">
         <v>20.100000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="11">
         <v>52061</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="12">
         <v>16.5</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D51" s="14">
         <v>123.4</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E51" s="14">
         <v>108.1</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F51" s="14">
         <v>392.5</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G51" s="12">
         <v>6.2</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H51" s="12">
         <v>5.9</v>
       </c>
-      <c r="I51" s="13">
+      <c r="I51" s="12">
         <v>10.7</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="11">
         <v>14591</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="12">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D52" s="14">
         <v>19.7</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E52" s="14">
         <v>16.5</v>
       </c>
-      <c r="F52" s="15">
+      <c r="F52" s="14">
         <v>47.8</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G52" s="12">
         <v>1</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H52" s="12">
         <v>0.9</v>
       </c>
-      <c r="I52" s="13">
+      <c r="I52" s="12">
         <v>1.3</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="11">
         <v>38861</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53" s="12">
         <v>12.4</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D53" s="13">
         <v>1160.5</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E53" s="13">
         <v>1102.3</v>
       </c>
-      <c r="F53" s="14">
+      <c r="F53" s="13">
         <v>1574.1</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G53" s="12">
         <v>58.7</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H53" s="12">
         <v>59.9</v>
       </c>
-      <c r="I53" s="13">
+      <c r="I53" s="12">
         <v>42.9</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B54" s="12">
+      <c r="B54" s="11">
         <v>7113</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C54" s="12">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D54" s="14">
         <v>977.1</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E54" s="14">
         <v>926.7</v>
       </c>
-      <c r="F54" s="14">
+      <c r="F54" s="13">
         <v>1281.5</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G54" s="12">
         <v>49.4</v>
       </c>
-      <c r="H54" s="13">
+      <c r="H54" s="12">
         <v>50.4</v>
       </c>
-      <c r="I54" s="13">
+      <c r="I54" s="12">
         <v>34.9</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="11">
         <v>31748</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55" s="12">
         <v>10.1</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D55" s="14">
         <v>183.4</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E55" s="14">
         <v>175.6</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F55" s="14">
         <v>292.60000000000002</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G55" s="12">
         <v>9.3000000000000007</v>
       </c>
-      <c r="H55" s="13">
+      <c r="H55" s="12">
         <v>9.5</v>
       </c>
-      <c r="I55" s="13">
+      <c r="I55" s="12">
         <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="12">
+      <c r="B56" s="11">
         <v>110801</v>
       </c>
-      <c r="C56" s="13">
+      <c r="C56" s="12">
         <v>35.200000000000003</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D56" s="14">
         <v>234.1</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E56" s="14">
         <v>224</v>
       </c>
-      <c r="F56" s="15">
+      <c r="F56" s="14">
         <v>357.1</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G56" s="12">
         <v>11.8</v>
       </c>
-      <c r="H56" s="13">
+      <c r="H56" s="12">
         <v>12.2</v>
       </c>
-      <c r="I56" s="13">
+      <c r="I56" s="12">
         <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B57" s="12">
+      <c r="B57" s="11">
         <v>6927</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="12">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D57" s="14">
         <v>38.5</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E57" s="14">
         <v>34.5</v>
       </c>
-      <c r="F57" s="15">
+      <c r="F57" s="14">
         <v>43.2</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G57" s="12">
         <v>1.9</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H57" s="12">
         <v>1.9</v>
       </c>
-      <c r="I57" s="13">
+      <c r="I57" s="12">
         <v>1.2</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="11">
         <v>37478</v>
       </c>
-      <c r="C58" s="13">
+      <c r="C58" s="12">
         <v>11.9</v>
       </c>
-      <c r="D58" s="15">
+      <c r="D58" s="14">
         <v>111.3</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E58" s="14">
         <v>93.3</v>
       </c>
-      <c r="F58" s="15">
+      <c r="F58" s="14">
         <v>347.1</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G58" s="12">
         <v>5.6</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H58" s="12">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I58" s="13">
+      <c r="I58" s="12">
         <v>9.5</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B59" s="11">
         <v>20443</v>
       </c>
-      <c r="C59" s="13">
+      <c r="C59" s="12">
         <v>6.5</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D59" s="14">
         <v>19.600000000000001</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E59" s="14">
         <v>17.100000000000001</v>
       </c>
-      <c r="F59" s="15">
+      <c r="F59" s="14">
         <v>42.6</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G59" s="12">
         <v>1</v>
       </c>
-      <c r="H59" s="13">
+      <c r="H59" s="12">
         <v>0.9</v>
       </c>
-      <c r="I59" s="13">
+      <c r="I59" s="12">
         <v>1.2</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="23" t="s">
         <v>39</v>
       </c>
       <c r="B61" t="s">
@@ -6903,26 +12799,26 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B62" s="28" t="s">
+      <c r="B62" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28" t="s">
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28" t="s">
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="I62" s="28"/>
-      <c r="J62" s="28"/>
-      <c r="K62" s="28" t="s">
+      <c r="I62" s="33"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="L62" s="28"/>
-      <c r="M62" s="28"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="33"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
@@ -6963,43 +12859,43 @@
       </c>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="29" t="s">
+      <c r="A64" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B64" s="30">
+      <c r="B64" s="27">
         <v>312779</v>
       </c>
-      <c r="C64" s="30">
+      <c r="C64" s="27">
         <v>293265</v>
       </c>
-      <c r="D64" s="30">
+      <c r="D64" s="27">
         <v>314744</v>
       </c>
-      <c r="E64" s="31">
+      <c r="E64" s="28">
         <v>1424</v>
       </c>
-      <c r="F64" s="31">
+      <c r="F64" s="28">
         <v>1641</v>
       </c>
-      <c r="G64" s="31">
+      <c r="G64" s="28">
         <v>1978.6</v>
       </c>
-      <c r="H64" s="31">
+      <c r="H64" s="28">
         <v>1307.7</v>
       </c>
-      <c r="I64" s="31">
+      <c r="I64" s="28">
         <v>1576.9</v>
       </c>
-      <c r="J64" s="31">
+      <c r="J64" s="28">
         <v>1838.9</v>
       </c>
-      <c r="K64" s="31">
+      <c r="K64" s="28">
         <v>2506.4</v>
       </c>
-      <c r="L64" s="31">
+      <c r="L64" s="28">
         <v>2904.1</v>
       </c>
-      <c r="M64" s="31">
+      <c r="M64" s="28">
         <v>3668.6</v>
       </c>
     </row>
@@ -7007,13 +12903,13 @@
       <c r="A65" t="s">
         <v>27</v>
       </c>
-      <c r="B65" s="26">
+      <c r="B65" s="24">
         <v>34483</v>
       </c>
-      <c r="C65" s="26">
+      <c r="C65" s="24">
         <v>29409</v>
       </c>
-      <c r="D65" s="26">
+      <c r="D65" s="24">
         <v>31429</v>
       </c>
       <c r="E65">
@@ -7048,13 +12944,13 @@
       <c r="A66" t="s">
         <v>28</v>
       </c>
-      <c r="B66" s="26">
+      <c r="B66" s="24">
         <v>56030</v>
       </c>
-      <c r="C66" s="26">
+      <c r="C66" s="24">
         <v>50387</v>
       </c>
-      <c r="D66" s="26">
+      <c r="D66" s="24">
         <v>54214</v>
       </c>
       <c r="E66">
@@ -7081,7 +12977,7 @@
       <c r="L66">
         <v>846.1</v>
       </c>
-      <c r="M66" s="27">
+      <c r="M66" s="25">
         <v>1128.8</v>
       </c>
     </row>
@@ -7089,13 +12985,13 @@
       <c r="A67" t="s">
         <v>29</v>
       </c>
-      <c r="B67" s="26">
+      <c r="B67" s="24">
         <v>1869</v>
       </c>
-      <c r="C67" s="26">
+      <c r="C67" s="24">
         <v>2040</v>
       </c>
-      <c r="D67" s="26">
+      <c r="D67" s="24">
         <v>2153</v>
       </c>
       <c r="E67">
@@ -7130,13 +13026,13 @@
       <c r="A68" t="s">
         <v>30</v>
       </c>
-      <c r="B68" s="26">
+      <c r="B68" s="24">
         <v>54161</v>
       </c>
-      <c r="C68" s="26">
+      <c r="C68" s="24">
         <v>48347</v>
       </c>
-      <c r="D68" s="26">
+      <c r="D68" s="24">
         <v>52061</v>
       </c>
       <c r="E68">
@@ -7171,13 +13067,13 @@
       <c r="A69" t="s">
         <v>31</v>
       </c>
-      <c r="B69" s="26">
+      <c r="B69" s="24">
         <v>12721</v>
       </c>
-      <c r="C69" s="26">
+      <c r="C69" s="24">
         <v>12715</v>
       </c>
-      <c r="D69" s="26">
+      <c r="D69" s="24">
         <v>14591</v>
       </c>
       <c r="E69">
@@ -7212,13 +13108,13 @@
       <c r="A70" t="s">
         <v>32</v>
       </c>
-      <c r="B70" s="26">
+      <c r="B70" s="24">
         <v>40774</v>
       </c>
-      <c r="C70" s="26">
+      <c r="C70" s="24">
         <v>38840</v>
       </c>
-      <c r="D70" s="26">
+      <c r="D70" s="24">
         <v>38861</v>
       </c>
       <c r="E70">
@@ -7227,7 +13123,7 @@
       <c r="F70">
         <v>986</v>
       </c>
-      <c r="G70" s="27">
+      <c r="G70" s="25">
         <v>1160.5</v>
       </c>
       <c r="H70">
@@ -7236,16 +13132,16 @@
       <c r="I70">
         <v>944.6</v>
       </c>
-      <c r="J70" s="27">
+      <c r="J70" s="25">
         <v>1102.3</v>
       </c>
-      <c r="K70" s="27">
+      <c r="K70" s="25">
         <v>1000.8</v>
       </c>
-      <c r="L70" s="27">
+      <c r="L70" s="25">
         <v>1238.9000000000001</v>
       </c>
-      <c r="M70" s="27">
+      <c r="M70" s="25">
         <v>1574.1</v>
       </c>
     </row>
@@ -7253,13 +13149,13 @@
       <c r="A71" t="s">
         <v>33</v>
       </c>
-      <c r="B71" s="26">
+      <c r="B71" s="24">
         <v>7150</v>
       </c>
-      <c r="C71" s="26">
+      <c r="C71" s="24">
         <v>7229</v>
       </c>
-      <c r="D71" s="26">
+      <c r="D71" s="24">
         <v>7113</v>
       </c>
       <c r="E71">
@@ -7283,10 +13179,10 @@
       <c r="K71">
         <v>790.1</v>
       </c>
-      <c r="L71" s="27">
+      <c r="L71" s="25">
         <v>1004.2</v>
       </c>
-      <c r="M71" s="27">
+      <c r="M71" s="25">
         <v>1281.5</v>
       </c>
     </row>
@@ -7294,13 +13190,13 @@
       <c r="A72" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="26">
+      <c r="B72" s="24">
         <v>33624</v>
       </c>
-      <c r="C72" s="26">
+      <c r="C72" s="24">
         <v>31611</v>
       </c>
-      <c r="D72" s="26">
+      <c r="D72" s="24">
         <v>31748</v>
       </c>
       <c r="E72">
@@ -7335,13 +13231,13 @@
       <c r="A73" t="s">
         <v>35</v>
       </c>
-      <c r="B73" s="26">
+      <c r="B73" s="24">
         <v>105938</v>
       </c>
-      <c r="C73" s="26">
+      <c r="C73" s="24">
         <v>103451</v>
       </c>
-      <c r="D73" s="26">
+      <c r="D73" s="24">
         <v>110801</v>
       </c>
       <c r="E73">
@@ -7376,13 +13272,13 @@
       <c r="A74" t="s">
         <v>36</v>
       </c>
-      <c r="B74" s="26">
+      <c r="B74" s="24">
         <v>5691</v>
       </c>
-      <c r="C74" s="26">
+      <c r="C74" s="24">
         <v>6066</v>
       </c>
-      <c r="D74" s="26">
+      <c r="D74" s="24">
         <v>6927</v>
       </c>
       <c r="E74">
@@ -7417,13 +13313,13 @@
       <c r="A75" t="s">
         <v>37</v>
       </c>
-      <c r="B75" s="26">
+      <c r="B75" s="24">
         <v>38381</v>
       </c>
-      <c r="C75" s="26">
+      <c r="C75" s="24">
         <v>34595</v>
       </c>
-      <c r="D75" s="26">
+      <c r="D75" s="24">
         <v>37478</v>
       </c>
       <c r="E75">
@@ -7458,13 +13354,13 @@
       <c r="A76" t="s">
         <v>38</v>
       </c>
-      <c r="B76" s="26">
+      <c r="B76" s="24">
         <v>18761</v>
       </c>
-      <c r="C76" s="26">
+      <c r="C76" s="24">
         <v>17802</v>
       </c>
-      <c r="D76" s="26">
+      <c r="D76" s="24">
         <v>20443</v>
       </c>
       <c r="E76">
@@ -7504,21 +13400,21 @@
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B80" s="28" t="s">
+      <c r="B80" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28" t="s">
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28" t="s">
+      <c r="F80" s="33"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="I80" s="28"/>
-      <c r="J80" s="28"/>
+      <c r="I80" s="33"/>
+      <c r="J80" s="33"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
@@ -7550,34 +13446,34 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="29" t="s">
+      <c r="A82" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B82" s="29">
+      <c r="B82" s="26">
         <v>38.9</v>
       </c>
-      <c r="C82" s="29">
+      <c r="C82" s="26">
         <v>15.2</v>
       </c>
-      <c r="D82" s="29">
+      <c r="D82" s="26">
         <v>20.6</v>
       </c>
-      <c r="E82" s="29">
+      <c r="E82" s="26">
         <v>40.6</v>
       </c>
-      <c r="F82" s="29">
+      <c r="F82" s="26">
         <v>20.6</v>
       </c>
-      <c r="G82" s="29">
+      <c r="G82" s="26">
         <v>16.600000000000001</v>
       </c>
-      <c r="H82" s="29">
+      <c r="H82" s="26">
         <v>46.4</v>
       </c>
-      <c r="I82" s="29">
+      <c r="I82" s="26">
         <v>15.9</v>
       </c>
-      <c r="J82" s="29">
+      <c r="J82" s="26">
         <v>26.3</v>
       </c>
     </row>
@@ -7967,15 +13863,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:J45"/>
     <mergeCell ref="B80:D80"/>
     <mergeCell ref="E80:G80"/>
     <mergeCell ref="H80:J80"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="E62:G62"/>
     <mergeCell ref="H62:J62"/>
-    <mergeCell ref="K62:M62"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G45:J45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7986,8 +13882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A581BF45-EA43-4AD2-8E6C-8A5DFAE1B63F}">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46:M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8256,424 +14152,424 @@
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="16" t="s">
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
     </row>
     <row r="30" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="20">
         <v>314744</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="21">
         <v>100</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="22">
         <v>1978.6</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="22">
         <v>1838.9</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="22">
         <v>3668.6</v>
       </c>
-      <c r="G31" s="23">
+      <c r="G31" s="21">
         <v>100</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="21">
         <v>100</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="21">
         <v>100.1</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="16">
         <v>31429</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="17">
         <v>10</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="18">
         <v>40.6</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="18">
         <v>35.700000000000003</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="18">
         <v>127.9</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="17">
         <v>2.1</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="17">
         <v>1.9</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I32" s="17">
         <v>3.5</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="11">
         <v>54214</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="12">
         <v>17.2</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="14">
         <v>354.3</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="14">
         <v>315.5</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="13">
         <v>1128.8</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="12">
         <v>17.899999999999999</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="12">
         <v>17.2</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I33" s="12">
         <v>30.8</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="11">
         <v>2153</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="12">
         <v>0.7</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="14">
         <v>230.9</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="14">
         <v>207.4</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="14">
         <v>736.3</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="12">
         <v>11.7</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="12">
         <v>11.3</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="12">
         <v>20.100000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="11">
         <v>52061</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="12">
         <v>16.5</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="14">
         <v>123.4</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="14">
         <v>108.1</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="14">
         <v>392.5</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="12">
         <v>6.2</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="12">
         <v>5.9</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="12">
         <v>10.7</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="11">
         <v>14591</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="12">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="14">
         <v>19.7</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="14">
         <v>16.5</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F36" s="14">
         <v>47.8</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="12">
         <v>1</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="12">
         <v>0.9</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I36" s="12">
         <v>1.3</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="11">
         <v>38861</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="12">
         <v>12.4</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="13">
         <v>1160.5</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="13">
         <v>1102.3</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="13">
         <v>1574.1</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="12">
         <v>58.7</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="12">
         <v>59.9</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I37" s="12">
         <v>42.9</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="11">
         <v>7113</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="12">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="14">
         <v>977.1</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="14">
         <v>926.7</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F38" s="13">
         <v>1281.5</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="12">
         <v>49.4</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="12">
         <v>50.4</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I38" s="12">
         <v>34.9</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="11">
         <v>31748</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="12">
         <v>10.1</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="14">
         <v>183.4</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="14">
         <v>175.6</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F39" s="14">
         <v>292.60000000000002</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="12">
         <v>9.3000000000000007</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="12">
         <v>9.5</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I39" s="12">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="11">
         <v>110801</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="12">
         <v>35.200000000000003</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="14">
         <v>234.1</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="14">
         <v>224</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F40" s="14">
         <v>357.1</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G40" s="12">
         <v>11.8</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="12">
         <v>12.2</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I40" s="12">
         <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="11">
         <v>6927</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="12">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="14">
         <v>38.5</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="14">
         <v>34.5</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F41" s="14">
         <v>43.2</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="12">
         <v>1.9</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="12">
         <v>1.9</v>
       </c>
-      <c r="I41" s="13">
+      <c r="I41" s="12">
         <v>1.2</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="11">
         <v>37478</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="12">
         <v>11.9</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="14">
         <v>111.3</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="14">
         <v>93.3</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F42" s="14">
         <v>347.1</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G42" s="12">
         <v>5.6</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="12">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I42" s="12">
         <v>9.5</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="11">
         <v>20443</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="12">
         <v>6.5</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="14">
         <v>19.600000000000001</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="14">
         <v>17.100000000000001</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F43" s="14">
         <v>42.6</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G43" s="12">
         <v>1</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H43" s="12">
         <v>0.9</v>
       </c>
-      <c r="I43" s="13">
+      <c r="I43" s="12">
         <v>1.2</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="23" t="s">
         <v>39</v>
       </c>
       <c r="B45" t="s">
@@ -8681,26 +14577,26 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28" t="s">
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28" t="s">
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28" t="s">
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="L46" s="28"/>
-      <c r="M46" s="28"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
@@ -8741,43 +14637,43 @@
       </c>
     </row>
     <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B48" s="30">
+      <c r="B48" s="27">
         <v>312779</v>
       </c>
-      <c r="C48" s="30">
+      <c r="C48" s="27">
         <v>293265</v>
       </c>
-      <c r="D48" s="30">
+      <c r="D48" s="27">
         <v>314744</v>
       </c>
-      <c r="E48" s="31">
+      <c r="E48" s="28">
         <v>1424</v>
       </c>
-      <c r="F48" s="31">
+      <c r="F48" s="28">
         <v>1641</v>
       </c>
-      <c r="G48" s="31">
+      <c r="G48" s="28">
         <v>1978.6</v>
       </c>
-      <c r="H48" s="31">
+      <c r="H48" s="28">
         <v>1307.7</v>
       </c>
-      <c r="I48" s="31">
+      <c r="I48" s="28">
         <v>1576.9</v>
       </c>
-      <c r="J48" s="31">
+      <c r="J48" s="28">
         <v>1838.9</v>
       </c>
-      <c r="K48" s="31">
+      <c r="K48" s="28">
         <v>2506.4</v>
       </c>
-      <c r="L48" s="31">
+      <c r="L48" s="28">
         <v>2904.1</v>
       </c>
-      <c r="M48" s="31">
+      <c r="M48" s="28">
         <v>3668.6</v>
       </c>
     </row>
@@ -8785,13 +14681,13 @@
       <c r="A49" t="s">
         <v>27</v>
       </c>
-      <c r="B49" s="26">
+      <c r="B49" s="24">
         <v>34483</v>
       </c>
-      <c r="C49" s="26">
+      <c r="C49" s="24">
         <v>29409</v>
       </c>
-      <c r="D49" s="26">
+      <c r="D49" s="24">
         <v>31429</v>
       </c>
       <c r="E49">
@@ -8826,13 +14722,13 @@
       <c r="A50" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="26">
+      <c r="B50" s="24">
         <v>56030</v>
       </c>
-      <c r="C50" s="26">
+      <c r="C50" s="24">
         <v>50387</v>
       </c>
-      <c r="D50" s="26">
+      <c r="D50" s="24">
         <v>54214</v>
       </c>
       <c r="E50">
@@ -8859,7 +14755,7 @@
       <c r="L50">
         <v>846.1</v>
       </c>
-      <c r="M50" s="27">
+      <c r="M50" s="25">
         <v>1128.8</v>
       </c>
     </row>
@@ -8867,13 +14763,13 @@
       <c r="A51" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="26">
+      <c r="B51" s="24">
         <v>1869</v>
       </c>
-      <c r="C51" s="26">
+      <c r="C51" s="24">
         <v>2040</v>
       </c>
-      <c r="D51" s="26">
+      <c r="D51" s="24">
         <v>2153</v>
       </c>
       <c r="E51">
@@ -8908,13 +14804,13 @@
       <c r="A52" t="s">
         <v>30</v>
       </c>
-      <c r="B52" s="26">
+      <c r="B52" s="24">
         <v>54161</v>
       </c>
-      <c r="C52" s="26">
+      <c r="C52" s="24">
         <v>48347</v>
       </c>
-      <c r="D52" s="26">
+      <c r="D52" s="24">
         <v>52061</v>
       </c>
       <c r="E52">
@@ -8949,13 +14845,13 @@
       <c r="A53" t="s">
         <v>31</v>
       </c>
-      <c r="B53" s="26">
+      <c r="B53" s="24">
         <v>12721</v>
       </c>
-      <c r="C53" s="26">
+      <c r="C53" s="24">
         <v>12715</v>
       </c>
-      <c r="D53" s="26">
+      <c r="D53" s="24">
         <v>14591</v>
       </c>
       <c r="E53">
@@ -8990,13 +14886,13 @@
       <c r="A54" t="s">
         <v>32</v>
       </c>
-      <c r="B54" s="26">
+      <c r="B54" s="24">
         <v>40774</v>
       </c>
-      <c r="C54" s="26">
+      <c r="C54" s="24">
         <v>38840</v>
       </c>
-      <c r="D54" s="26">
+      <c r="D54" s="24">
         <v>38861</v>
       </c>
       <c r="E54">
@@ -9005,7 +14901,7 @@
       <c r="F54">
         <v>986</v>
       </c>
-      <c r="G54" s="27">
+      <c r="G54" s="25">
         <v>1160.5</v>
       </c>
       <c r="H54">
@@ -9014,16 +14910,16 @@
       <c r="I54">
         <v>944.6</v>
       </c>
-      <c r="J54" s="27">
+      <c r="J54" s="25">
         <v>1102.3</v>
       </c>
-      <c r="K54" s="27">
+      <c r="K54" s="25">
         <v>1000.8</v>
       </c>
-      <c r="L54" s="27">
+      <c r="L54" s="25">
         <v>1238.9000000000001</v>
       </c>
-      <c r="M54" s="27">
+      <c r="M54" s="25">
         <v>1574.1</v>
       </c>
     </row>
@@ -9031,13 +14927,13 @@
       <c r="A55" t="s">
         <v>33</v>
       </c>
-      <c r="B55" s="26">
+      <c r="B55" s="24">
         <v>7150</v>
       </c>
-      <c r="C55" s="26">
+      <c r="C55" s="24">
         <v>7229</v>
       </c>
-      <c r="D55" s="26">
+      <c r="D55" s="24">
         <v>7113</v>
       </c>
       <c r="E55">
@@ -9061,10 +14957,10 @@
       <c r="K55">
         <v>790.1</v>
       </c>
-      <c r="L55" s="27">
+      <c r="L55" s="25">
         <v>1004.2</v>
       </c>
-      <c r="M55" s="27">
+      <c r="M55" s="25">
         <v>1281.5</v>
       </c>
     </row>
@@ -9072,13 +14968,13 @@
       <c r="A56" t="s">
         <v>34</v>
       </c>
-      <c r="B56" s="26">
+      <c r="B56" s="24">
         <v>33624</v>
       </c>
-      <c r="C56" s="26">
+      <c r="C56" s="24">
         <v>31611</v>
       </c>
-      <c r="D56" s="26">
+      <c r="D56" s="24">
         <v>31748</v>
       </c>
       <c r="E56">
@@ -9113,13 +15009,13 @@
       <c r="A57" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="26">
+      <c r="B57" s="24">
         <v>105938</v>
       </c>
-      <c r="C57" s="26">
+      <c r="C57" s="24">
         <v>103451</v>
       </c>
-      <c r="D57" s="26">
+      <c r="D57" s="24">
         <v>110801</v>
       </c>
       <c r="E57">
@@ -9154,13 +15050,13 @@
       <c r="A58" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="26">
+      <c r="B58" s="24">
         <v>5691</v>
       </c>
-      <c r="C58" s="26">
+      <c r="C58" s="24">
         <v>6066</v>
       </c>
-      <c r="D58" s="26">
+      <c r="D58" s="24">
         <v>6927</v>
       </c>
       <c r="E58">
@@ -9195,13 +15091,13 @@
       <c r="A59" t="s">
         <v>37</v>
       </c>
-      <c r="B59" s="26">
+      <c r="B59" s="24">
         <v>38381</v>
       </c>
-      <c r="C59" s="26">
+      <c r="C59" s="24">
         <v>34595</v>
       </c>
-      <c r="D59" s="26">
+      <c r="D59" s="24">
         <v>37478</v>
       </c>
       <c r="E59">
@@ -9236,13 +15132,13 @@
       <c r="A60" t="s">
         <v>38</v>
       </c>
-      <c r="B60" s="26">
+      <c r="B60" s="24">
         <v>18761</v>
       </c>
-      <c r="C60" s="26">
+      <c r="C60" s="24">
         <v>17802</v>
       </c>
-      <c r="D60" s="26">
+      <c r="D60" s="24">
         <v>20443</v>
       </c>
       <c r="E60">
@@ -9282,21 +15178,21 @@
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B64" s="28" t="s">
+      <c r="B64" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28" t="s">
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28" t="s">
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="33"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
@@ -9328,34 +15224,34 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="29" t="s">
+      <c r="A66" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B66" s="29">
+      <c r="B66" s="26">
         <v>38.9</v>
       </c>
-      <c r="C66" s="29">
+      <c r="C66" s="26">
         <v>15.2</v>
       </c>
-      <c r="D66" s="29">
+      <c r="D66" s="26">
         <v>20.6</v>
       </c>
-      <c r="E66" s="29">
+      <c r="E66" s="26">
         <v>40.6</v>
       </c>
-      <c r="F66" s="29">
+      <c r="F66" s="26">
         <v>20.6</v>
       </c>
-      <c r="G66" s="29">
+      <c r="G66" s="26">
         <v>16.600000000000001</v>
       </c>
-      <c r="H66" s="29">
+      <c r="H66" s="26">
         <v>46.4</v>
       </c>
-      <c r="I66" s="29">
+      <c r="I66" s="26">
         <v>15.9</v>
       </c>
-      <c r="J66" s="29">
+      <c r="J66" s="26">
         <v>26.3</v>
       </c>
     </row>
@@ -9745,6 +15641,7 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="K46:M46"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="E64:G64"/>
     <mergeCell ref="H64:J64"/>
@@ -9753,7 +15650,6 @@
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="E46:G46"/>
     <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:M46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9799,7 +15695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7CE6E8E-E17A-4F04-80EC-7A41E93C4351}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
@@ -9811,6 +15707,1302 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258943CD-F25C-4DDA-A140-1BFB789BB379}">
+  <dimension ref="A1:AF15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AG33" sqref="AG33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="K2" s="1">
+        <v>2005</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2015</v>
+      </c>
+      <c r="M2" s="1">
+        <v>2005</v>
+      </c>
+      <c r="N2" s="1">
+        <v>2015</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="27">
+        <v>312779</v>
+      </c>
+      <c r="L3" s="27">
+        <v>314744</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="36">
+        <f>(L3-K3)/L3</f>
+        <v>6.2431690516737415E-3</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF3" s="24">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="24">
+        <v>34483</v>
+      </c>
+      <c r="L4" s="24">
+        <v>31429</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="36">
+        <f t="shared" ref="N4:N15" si="0">(L4-K4)/L4</f>
+        <v>-9.7171402208151708E-2</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF4" s="24">
+        <v>6927</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="24">
+        <v>56030</v>
+      </c>
+      <c r="L5" s="24">
+        <v>54214</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="36">
+        <f t="shared" si="0"/>
+        <v>-3.3496882724019628E-2</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF5" s="24">
+        <v>7113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="24">
+        <v>1869</v>
+      </c>
+      <c r="L6" s="24">
+        <v>2153</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="36">
+        <f t="shared" si="0"/>
+        <v>0.13190896423594983</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF6" s="24">
+        <v>14591</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="24">
+        <v>54161</v>
+      </c>
+      <c r="L7" s="24">
+        <v>52061</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="36">
+        <f t="shared" si="0"/>
+        <v>-4.0337296632796144E-2</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF7" s="24">
+        <v>20443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="24">
+        <v>12721</v>
+      </c>
+      <c r="L8" s="24">
+        <v>14591</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="36">
+        <f t="shared" si="0"/>
+        <v>0.12816119525735042</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF8" s="24">
+        <v>31429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="24">
+        <v>40774</v>
+      </c>
+      <c r="L9" s="24">
+        <v>38861</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="36">
+        <f t="shared" si="0"/>
+        <v>-4.9226731170067678E-2</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF9" s="24">
+        <v>31748</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="24">
+        <v>7150</v>
+      </c>
+      <c r="L10" s="24">
+        <v>7113</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="36">
+        <f t="shared" si="0"/>
+        <v>-5.2017432869394071E-3</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF10" s="24">
+        <v>37478</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="24">
+        <v>33624</v>
+      </c>
+      <c r="L11" s="24">
+        <v>31748</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="36">
+        <f t="shared" si="0"/>
+        <v>-5.9090336399143253E-2</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF11" s="24">
+        <v>38861</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="24">
+        <v>105938</v>
+      </c>
+      <c r="L12" s="24">
+        <v>110801</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="36">
+        <f t="shared" si="0"/>
+        <v>4.3889495582169834E-2</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF12" s="24">
+        <v>52061</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="24">
+        <v>5691</v>
+      </c>
+      <c r="L13" s="24">
+        <v>6927</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.17843222174101342</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF13" s="24">
+        <v>54214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="24">
+        <v>38381</v>
+      </c>
+      <c r="L14" s="24">
+        <v>37478</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" s="36">
+        <f t="shared" si="0"/>
+        <v>-2.4094135225999253E-2</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF14" s="24">
+        <v>110801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="24">
+        <v>18761</v>
+      </c>
+      <c r="L15" s="24">
+        <v>20443</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" s="36">
+        <f t="shared" si="0"/>
+        <v>8.2277552218363248E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27925631-6CA6-4B9F-BBBE-93B528B1F2C8}">
+  <dimension ref="A1:J46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>2005</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2015</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2005</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2015</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2005</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2010</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>31.7</v>
+      </c>
+      <c r="C3">
+        <v>31.5</v>
+      </c>
+      <c r="D3">
+        <v>40.6</v>
+      </c>
+      <c r="E3">
+        <v>27.7</v>
+      </c>
+      <c r="F3">
+        <v>29.9</v>
+      </c>
+      <c r="G3">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="H3">
+        <v>98.3</v>
+      </c>
+      <c r="I3">
+        <v>105.3</v>
+      </c>
+      <c r="J3">
+        <v>127.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>251.7</v>
+      </c>
+      <c r="C4">
+        <v>268.39999999999998</v>
+      </c>
+      <c r="D4">
+        <v>354.3</v>
+      </c>
+      <c r="E4">
+        <v>210.5</v>
+      </c>
+      <c r="F4">
+        <v>261.5</v>
+      </c>
+      <c r="G4">
+        <v>315.5</v>
+      </c>
+      <c r="H4">
+        <v>783.1</v>
+      </c>
+      <c r="I4">
+        <v>846.1</v>
+      </c>
+      <c r="J4" s="25">
+        <v>1128.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>166.3</v>
+      </c>
+      <c r="C5">
+        <v>173.3</v>
+      </c>
+      <c r="D5">
+        <v>230.9</v>
+      </c>
+      <c r="E5">
+        <v>140.19999999999999</v>
+      </c>
+      <c r="F5">
+        <v>169.3</v>
+      </c>
+      <c r="G5">
+        <v>207.4</v>
+      </c>
+      <c r="H5">
+        <v>527.6</v>
+      </c>
+      <c r="I5">
+        <v>549.70000000000005</v>
+      </c>
+      <c r="J5">
+        <v>736.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>85.4</v>
+      </c>
+      <c r="C6">
+        <v>95.1</v>
+      </c>
+      <c r="D6">
+        <v>123.4</v>
+      </c>
+      <c r="E6">
+        <v>70.3</v>
+      </c>
+      <c r="F6">
+        <v>92.2</v>
+      </c>
+      <c r="G6">
+        <v>108.1</v>
+      </c>
+      <c r="H6">
+        <v>255.5</v>
+      </c>
+      <c r="I6">
+        <v>296.39999999999998</v>
+      </c>
+      <c r="J6">
+        <v>392.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>14.7</v>
+      </c>
+      <c r="D7">
+        <v>19.7</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>13.7</v>
+      </c>
+      <c r="G7">
+        <v>16.5</v>
+      </c>
+      <c r="H7">
+        <v>32</v>
+      </c>
+      <c r="I7">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="J7">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>817.2</v>
+      </c>
+      <c r="C8">
+        <v>986</v>
+      </c>
+      <c r="D8" s="25">
+        <v>1160.5</v>
+      </c>
+      <c r="E8">
+        <v>775.8</v>
+      </c>
+      <c r="F8">
+        <v>944.6</v>
+      </c>
+      <c r="G8" s="25">
+        <v>1102.3</v>
+      </c>
+      <c r="H8" s="25">
+        <v>1000.8</v>
+      </c>
+      <c r="I8" s="25">
+        <v>1238.9000000000001</v>
+      </c>
+      <c r="J8" s="25">
+        <v>1574.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>689.3</v>
+      </c>
+      <c r="C9">
+        <v>838.3</v>
+      </c>
+      <c r="D9">
+        <v>977.1</v>
+      </c>
+      <c r="E9">
+        <v>658.4</v>
+      </c>
+      <c r="F9">
+        <v>802.8</v>
+      </c>
+      <c r="G9">
+        <v>926.7</v>
+      </c>
+      <c r="H9">
+        <v>790.1</v>
+      </c>
+      <c r="I9" s="25">
+        <v>1004.2</v>
+      </c>
+      <c r="J9" s="25">
+        <v>1281.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>127.9</v>
+      </c>
+      <c r="C10">
+        <v>147.69999999999999</v>
+      </c>
+      <c r="D10">
+        <v>183.4</v>
+      </c>
+      <c r="E10">
+        <v>117.4</v>
+      </c>
+      <c r="F10">
+        <v>141.80000000000001</v>
+      </c>
+      <c r="G10">
+        <v>175.6</v>
+      </c>
+      <c r="H10">
+        <v>210.7</v>
+      </c>
+      <c r="I10">
+        <v>234.7</v>
+      </c>
+      <c r="J10">
+        <v>292.60000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>185.3</v>
+      </c>
+      <c r="C11">
+        <v>213.3</v>
+      </c>
+      <c r="D11">
+        <v>234.1</v>
+      </c>
+      <c r="E11">
+        <v>176.8</v>
+      </c>
+      <c r="F11">
+        <v>206.2</v>
+      </c>
+      <c r="G11">
+        <v>224</v>
+      </c>
+      <c r="H11">
+        <v>274.3</v>
+      </c>
+      <c r="I11">
+        <v>321.2</v>
+      </c>
+      <c r="J11">
+        <v>357.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>30.5</v>
+      </c>
+      <c r="C12">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>38.5</v>
+      </c>
+      <c r="E12">
+        <v>27.1</v>
+      </c>
+      <c r="F12">
+        <v>31.1</v>
+      </c>
+      <c r="G12">
+        <v>34.5</v>
+      </c>
+      <c r="H12">
+        <v>28.5</v>
+      </c>
+      <c r="I12">
+        <v>31.3</v>
+      </c>
+      <c r="J12">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>82.3</v>
+      </c>
+      <c r="C13">
+        <v>81.2</v>
+      </c>
+      <c r="D13">
+        <v>111.3</v>
+      </c>
+      <c r="E13">
+        <v>68.2</v>
+      </c>
+      <c r="F13">
+        <v>77</v>
+      </c>
+      <c r="G13">
+        <v>93.3</v>
+      </c>
+      <c r="H13">
+        <v>262.5</v>
+      </c>
+      <c r="I13">
+        <v>292.60000000000002</v>
+      </c>
+      <c r="J13">
+        <v>347.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>12.3</v>
+      </c>
+      <c r="C14">
+        <v>13.9</v>
+      </c>
+      <c r="D14">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E14">
+        <v>10.6</v>
+      </c>
+      <c r="F14">
+        <v>12.9</v>
+      </c>
+      <c r="G14">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="H14">
+        <v>26.9</v>
+      </c>
+      <c r="I14">
+        <v>31</v>
+      </c>
+      <c r="J14">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>2005</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2015</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2005</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2015</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2005</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2010</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>31.7</v>
+      </c>
+      <c r="C23">
+        <v>31.5</v>
+      </c>
+      <c r="D23">
+        <v>40.6</v>
+      </c>
+      <c r="E23">
+        <v>27.7</v>
+      </c>
+      <c r="F23">
+        <v>29.9</v>
+      </c>
+      <c r="G23">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="H23">
+        <v>98.3</v>
+      </c>
+      <c r="I23">
+        <v>105.3</v>
+      </c>
+      <c r="J23">
+        <v>127.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>251.7</v>
+      </c>
+      <c r="C24">
+        <v>268.39999999999998</v>
+      </c>
+      <c r="D24">
+        <v>354.3</v>
+      </c>
+      <c r="E24">
+        <v>210.5</v>
+      </c>
+      <c r="F24">
+        <v>261.5</v>
+      </c>
+      <c r="G24">
+        <v>315.5</v>
+      </c>
+      <c r="H24">
+        <v>783.1</v>
+      </c>
+      <c r="I24">
+        <v>846.1</v>
+      </c>
+      <c r="J24" s="25">
+        <v>1128.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>166.3</v>
+      </c>
+      <c r="C25">
+        <v>173.3</v>
+      </c>
+      <c r="D25">
+        <v>230.9</v>
+      </c>
+      <c r="E25">
+        <v>140.19999999999999</v>
+      </c>
+      <c r="F25">
+        <v>169.3</v>
+      </c>
+      <c r="G25">
+        <v>207.4</v>
+      </c>
+      <c r="H25">
+        <v>527.6</v>
+      </c>
+      <c r="I25">
+        <v>549.70000000000005</v>
+      </c>
+      <c r="J25">
+        <v>736.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>85.4</v>
+      </c>
+      <c r="C26">
+        <v>95.1</v>
+      </c>
+      <c r="D26">
+        <v>123.4</v>
+      </c>
+      <c r="E26">
+        <v>70.3</v>
+      </c>
+      <c r="F26">
+        <v>92.2</v>
+      </c>
+      <c r="G26">
+        <v>108.1</v>
+      </c>
+      <c r="H26">
+        <v>255.5</v>
+      </c>
+      <c r="I26">
+        <v>296.39999999999998</v>
+      </c>
+      <c r="J26">
+        <v>392.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>14.7</v>
+      </c>
+      <c r="D27">
+        <v>19.7</v>
+      </c>
+      <c r="E27">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>13.7</v>
+      </c>
+      <c r="G27">
+        <v>16.5</v>
+      </c>
+      <c r="H27">
+        <v>32</v>
+      </c>
+      <c r="I27">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="J27">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>817.2</v>
+      </c>
+      <c r="C28">
+        <v>986</v>
+      </c>
+      <c r="D28" s="25">
+        <v>1160.5</v>
+      </c>
+      <c r="E28">
+        <v>775.8</v>
+      </c>
+      <c r="F28">
+        <v>944.6</v>
+      </c>
+      <c r="G28" s="25">
+        <v>1102.3</v>
+      </c>
+      <c r="H28" s="25">
+        <v>1000.8</v>
+      </c>
+      <c r="I28" s="25">
+        <v>1238.9000000000001</v>
+      </c>
+      <c r="J28" s="25">
+        <v>1574.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>689.3</v>
+      </c>
+      <c r="C29">
+        <v>838.3</v>
+      </c>
+      <c r="D29">
+        <v>977.1</v>
+      </c>
+      <c r="E29">
+        <v>658.4</v>
+      </c>
+      <c r="F29">
+        <v>802.8</v>
+      </c>
+      <c r="G29">
+        <v>926.7</v>
+      </c>
+      <c r="H29">
+        <v>790.1</v>
+      </c>
+      <c r="I29" s="25">
+        <v>1004.2</v>
+      </c>
+      <c r="J29" s="25">
+        <v>1281.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>127.9</v>
+      </c>
+      <c r="C30">
+        <v>147.69999999999999</v>
+      </c>
+      <c r="D30">
+        <v>183.4</v>
+      </c>
+      <c r="E30">
+        <v>117.4</v>
+      </c>
+      <c r="F30">
+        <v>141.80000000000001</v>
+      </c>
+      <c r="G30">
+        <v>175.6</v>
+      </c>
+      <c r="H30">
+        <v>210.7</v>
+      </c>
+      <c r="I30">
+        <v>234.7</v>
+      </c>
+      <c r="J30">
+        <v>292.60000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31">
+        <v>185.3</v>
+      </c>
+      <c r="C31">
+        <v>213.3</v>
+      </c>
+      <c r="D31">
+        <v>234.1</v>
+      </c>
+      <c r="E31">
+        <v>176.8</v>
+      </c>
+      <c r="F31">
+        <v>206.2</v>
+      </c>
+      <c r="G31">
+        <v>224</v>
+      </c>
+      <c r="H31">
+        <v>274.3</v>
+      </c>
+      <c r="I31">
+        <v>321.2</v>
+      </c>
+      <c r="J31">
+        <v>357.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <v>30.5</v>
+      </c>
+      <c r="C32">
+        <v>32</v>
+      </c>
+      <c r="D32">
+        <v>38.5</v>
+      </c>
+      <c r="E32">
+        <v>27.1</v>
+      </c>
+      <c r="F32">
+        <v>31.1</v>
+      </c>
+      <c r="G32">
+        <v>34.5</v>
+      </c>
+      <c r="H32">
+        <v>28.5</v>
+      </c>
+      <c r="I32">
+        <v>31.3</v>
+      </c>
+      <c r="J32">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>82.3</v>
+      </c>
+      <c r="C33">
+        <v>81.2</v>
+      </c>
+      <c r="D33">
+        <v>111.3</v>
+      </c>
+      <c r="E33">
+        <v>68.2</v>
+      </c>
+      <c r="F33">
+        <v>77</v>
+      </c>
+      <c r="G33">
+        <v>93.3</v>
+      </c>
+      <c r="H33">
+        <v>262.5</v>
+      </c>
+      <c r="I33">
+        <v>292.60000000000002</v>
+      </c>
+      <c r="J33">
+        <v>347.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <v>12.3</v>
+      </c>
+      <c r="C34">
+        <v>13.9</v>
+      </c>
+      <c r="D34">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E34">
+        <v>10.6</v>
+      </c>
+      <c r="F34">
+        <v>12.9</v>
+      </c>
+      <c r="G34">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="H34">
+        <v>26.9</v>
+      </c>
+      <c r="I34">
+        <v>31</v>
+      </c>
+      <c r="J34">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="37"/>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="37"/>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="37"/>
+      <c r="B40" s="1"/>
+      <c r="H40" s="25"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="37"/>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="37"/>
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="37"/>
+      <c r="B43" s="1"/>
+      <c r="H43" s="25"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="37"/>
+      <c r="B44" s="1"/>
+      <c r="H44" s="25"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="37"/>
+      <c r="B45" s="1"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="37"/>
+      <c r="B46" s="1"/>
+      <c r="D46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9995,18 +17187,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10028,18 +17220,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F73EA17-884A-4BD0-A35A-DA27C5309908}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B151E57-6ACC-4260-8927-636EE7EC59B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F73EA17-884A-4BD0-A35A-DA27C5309908}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/charts/ChartPlan.xlsx
+++ b/charts/ChartPlan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MattP\Desktop\Capstone\charts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mapeyton\OneDrive - American Medical Association\Documents\R\NCCS\htmltest\charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDF29B5-7E4B-4DBF-93E2-D8AB20F6A4FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="114_{E457A1DC-1E81-43F0-9457-1A1F37AC153A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{80B4792E-71B1-4E79-9167-921818193C21}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{0C459248-39B4-4EA6-A46F-BB1EB6E6E23D}"/>
+    <workbookView xWindow="1875" yWindow="0" windowWidth="23040" windowHeight="15600" activeTab="5" xr2:uid="{0C459248-39B4-4EA6-A46F-BB1EB6E6E23D}"/>
   </bookViews>
   <sheets>
     <sheet name="Scratch" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="62">
   <si>
     <t>Figure 1.1</t>
   </si>
@@ -217,6 +217,12 @@
   <si>
     <t>2015</t>
   </si>
+  <si>
+    <t>Percent Change in Revenue, Expenses, and Assets of Reporting Public Charities by Subsector, 2005–2015 (adjusted for inflation)</t>
+  </si>
+  <si>
+    <t>SHOW</t>
+  </si>
 </sst>
 </file>
 
@@ -227,7 +233,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,6 +298,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF4A4B4A"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -374,7 +386,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -440,6 +452,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -449,8 +463,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1193,6 +1211,1938 @@
         <c:crossAx val="1492042144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>All Public Charities</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 3 Small Multiples'!$B$54:$D$54</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Change in Revenues</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Figure 3 Small Multiples'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 3 Small Multiples'!$B$56:$D$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D860-4BD3-A5FC-70D8811BB8BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 3 Small Multiples'!$E$54:$G$54</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Change in Expenses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 3 Small Multiples'!$E$56:$G$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D860-4BD3-A5FC-70D8811BB8BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 3 Small Multiples'!$H$54:$J$54</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Change in Assets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 3 Small Multiples'!$H$56:$J$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D860-4BD3-A5FC-70D8811BB8BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1492042144"/>
+        <c:axId val="1463163248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1492042144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1463163248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1463163248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="40"/>
+          <c:min val="-5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1492042144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Arts</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 3 Small Multiples'!$B$54:$D$54</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Change in Revenues</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Figure 3 Small Multiples'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 3 Small Multiples'!$B$57:$D$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-F930-4749-B487-775AE0097F3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 3 Small Multiples'!$E$54:$G$54</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Change in Expenses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 3 Small Multiples'!$E$57:$G$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-F930-4749-B487-775AE0097F3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 3 Small Multiples'!$H$54:$J$54</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Change in Assets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 3 Small Multiples'!$H$57:$J$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-F930-4749-B487-775AE0097F3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 3 Small Multiples'!$B$54:$D$54</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Change in Revenues</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Figure 3 Small Multiples'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 3 Small Multiples'!$B$57:$D$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F930-4749-B487-775AE0097F3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 3 Small Multiples'!$E$54:$G$54</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Change in Expenses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 3 Small Multiples'!$E$57:$G$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-F930-4749-B487-775AE0097F3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 3 Small Multiples'!$H$54:$J$54</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Change in Assets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 3 Small Multiples'!$H$57:$J$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-F930-4749-B487-775AE0097F3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1492042144"/>
+        <c:axId val="1463163248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1492042144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1463163248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1463163248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="40"/>
+          <c:min val="-5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1492042144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Education</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 3 Small Multiples'!$B$54:$D$54</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Change in Revenues</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Figure 3 Small Multiples'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 3 Small Multiples'!$B$58:$D$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B77B-43AE-BB9A-826FEE70F839}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 3 Small Multiples'!$E$54:$G$54</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Change in Expenses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 3 Small Multiples'!$E$58:$G$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B77B-43AE-BB9A-826FEE70F839}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 3 Small Multiples'!$H$54:$J$54</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Change in Assets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 3 Small Multiples'!$H$58:$J$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B77B-43AE-BB9A-826FEE70F839}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1492042144"/>
+        <c:axId val="1463163248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1492042144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1463163248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1463163248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="40"/>
+          <c:min val="-5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1492042144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Higher Education</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 3 Small Multiples'!$B$54:$D$54</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Change in Revenues</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Figure 3 Small Multiples'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 3 Small Multiples'!$B$58:$D$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-CDCA-400B-A7A1-A63F74EB1BA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 3 Small Multiples'!$E$54:$G$54</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Change in Expenses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 3 Small Multiples'!$E$58:$G$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-CDCA-400B-A7A1-A63F74EB1BA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 3 Small Multiples'!$H$54:$J$54</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Change in Assets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 3 Small Multiples'!$H$58:$J$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-CDCA-400B-A7A1-A63F74EB1BA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1492042144"/>
+        <c:axId val="1463163248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1492042144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1463163248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1463163248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="40"/>
+          <c:min val="-5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1492042144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Other Education</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 3 Small Multiples'!$B$54:$D$54</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Change in Revenues</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Figure 3 Small Multiples'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 3 Small Multiples'!$B$60:$D$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-63D3-470E-A8AE-316171D91FAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 3 Small Multiples'!$E$54:$G$54</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Change in Expenses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 3 Small Multiples'!$E$60:$G$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-63D3-470E-A8AE-316171D91FAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Figure 3 Small Multiples'!$H$54:$J$54</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Change in Assets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Figure 3 Small Multiples'!$H$60:$J$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-63D3-470E-A8AE-316171D91FAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1492042144"/>
+        <c:axId val="1463163248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1492042144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1463163248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1463163248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="40"/>
+          <c:min val="-5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1492042144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -11663,6 +13613,196 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B996F3-2BBC-497D-AF1D-BC7FFD9ECB38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ABD4394-17E5-46F4-B023-5C7D22213E7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{255F8556-54F6-42D6-BC35-1DC8B3A2AA8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70912736-690B-4853-A692-9B09DD01893A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F373935D-769F-45E9-8A46-B11CCAA13772}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12374,17 +14514,17 @@
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
-      <c r="D45" s="34" t="s">
+      <c r="D45" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="35" t="s">
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
     </row>
     <row r="46" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
@@ -12799,26 +14939,26 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B62" s="33" t="s">
+      <c r="B62" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33" t="s">
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33" t="s">
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="I62" s="33"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="33" t="s">
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="L62" s="33"/>
-      <c r="M62" s="33"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="35"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
@@ -13400,21 +15540,21 @@
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B80" s="33" t="s">
+      <c r="B80" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33" t="s">
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="F80" s="33"/>
-      <c r="G80" s="33"/>
-      <c r="H80" s="33" t="s">
+      <c r="F80" s="35"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="I80" s="33"/>
-      <c r="J80" s="33"/>
+      <c r="I80" s="35"/>
+      <c r="J80" s="35"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
@@ -14152,17 +16292,17 @@
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="35" t="s">
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
     </row>
     <row r="30" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
@@ -14577,26 +16717,26 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33" t="s">
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33" t="s">
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33" t="s">
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="L46" s="33"/>
-      <c r="M46" s="33"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
@@ -15178,21 +17318,21 @@
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B64" s="33" t="s">
+      <c r="B64" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33" t="s">
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="33" t="s">
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="I64" s="33"/>
-      <c r="J64" s="33"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="35"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
@@ -15765,7 +17905,7 @@
       <c r="M3">
         <v>0</v>
       </c>
-      <c r="N3" s="36">
+      <c r="N3" s="33">
         <f>(L3-K3)/L3</f>
         <v>6.2431690516737415E-3</v>
       </c>
@@ -15789,7 +17929,7 @@
       <c r="M4">
         <v>0</v>
       </c>
-      <c r="N4" s="36">
+      <c r="N4" s="33">
         <f t="shared" ref="N4:N15" si="0">(L4-K4)/L4</f>
         <v>-9.7171402208151708E-2</v>
       </c>
@@ -15813,7 +17953,7 @@
       <c r="M5">
         <v>0</v>
       </c>
-      <c r="N5" s="36">
+      <c r="N5" s="33">
         <f t="shared" si="0"/>
         <v>-3.3496882724019628E-2</v>
       </c>
@@ -15837,7 +17977,7 @@
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="N6" s="36">
+      <c r="N6" s="33">
         <f t="shared" si="0"/>
         <v>0.13190896423594983</v>
       </c>
@@ -15861,7 +18001,7 @@
       <c r="M7">
         <v>0</v>
       </c>
-      <c r="N7" s="36">
+      <c r="N7" s="33">
         <f t="shared" si="0"/>
         <v>-4.0337296632796144E-2</v>
       </c>
@@ -15885,7 +18025,7 @@
       <c r="M8">
         <v>0</v>
       </c>
-      <c r="N8" s="36">
+      <c r="N8" s="33">
         <f t="shared" si="0"/>
         <v>0.12816119525735042</v>
       </c>
@@ -15909,7 +18049,7 @@
       <c r="M9">
         <v>0</v>
       </c>
-      <c r="N9" s="36">
+      <c r="N9" s="33">
         <f t="shared" si="0"/>
         <v>-4.9226731170067678E-2</v>
       </c>
@@ -15933,7 +18073,7 @@
       <c r="M10">
         <v>0</v>
       </c>
-      <c r="N10" s="36">
+      <c r="N10" s="33">
         <f t="shared" si="0"/>
         <v>-5.2017432869394071E-3</v>
       </c>
@@ -15957,7 +18097,7 @@
       <c r="M11">
         <v>0</v>
       </c>
-      <c r="N11" s="36">
+      <c r="N11" s="33">
         <f t="shared" si="0"/>
         <v>-5.9090336399143253E-2</v>
       </c>
@@ -15981,7 +18121,7 @@
       <c r="M12">
         <v>0</v>
       </c>
-      <c r="N12" s="36">
+      <c r="N12" s="33">
         <f t="shared" si="0"/>
         <v>4.3889495582169834E-2</v>
       </c>
@@ -16005,7 +18145,7 @@
       <c r="M13">
         <v>0</v>
       </c>
-      <c r="N13" s="36">
+      <c r="N13" s="33">
         <f t="shared" si="0"/>
         <v>0.17843222174101342</v>
       </c>
@@ -16029,7 +18169,7 @@
       <c r="M14">
         <v>0</v>
       </c>
-      <c r="N14" s="36">
+      <c r="N14" s="33">
         <f t="shared" si="0"/>
         <v>-2.4094135225999253E-2</v>
       </c>
@@ -16053,7 +18193,7 @@
       <c r="M15">
         <v>0</v>
       </c>
-      <c r="N15" s="36">
+      <c r="N15" s="33">
         <f t="shared" si="0"/>
         <v>8.2277552218363248E-2</v>
       </c>
@@ -16070,10 +18210,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27925631-6CA6-4B9F-BBBE-93B528B1F2C8}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="M97" sqref="M97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16082,21 +18222,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33" t="s">
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
@@ -16512,31 +18652,31 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="F21" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="37" t="s">
+      <c r="H21" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="37" t="s">
+      <c r="I21" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="37" t="s">
+      <c r="J21" s="34" t="s">
         <v>25</v>
       </c>
     </row>
@@ -16953,62 +19093,973 @@
         <v>42.6</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
-      <c r="B38" s="1"/>
+    <row r="36" spans="1:10" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
-      <c r="B39" s="1"/>
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>38.9</v>
+      </c>
+      <c r="C39">
+        <v>15.2</v>
+      </c>
+      <c r="D39">
+        <v>20.6</v>
+      </c>
+      <c r="E39">
+        <v>40.6</v>
+      </c>
+      <c r="F39">
+        <v>20.6</v>
+      </c>
+      <c r="G39">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="H39">
+        <v>46.4</v>
+      </c>
+      <c r="I39">
+        <v>15.9</v>
+      </c>
+      <c r="J39">
+        <v>26.3</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
-      <c r="B40" s="1"/>
-      <c r="H40" s="25"/>
+      <c r="A40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40">
+        <v>28.1</v>
+      </c>
+      <c r="C40">
+        <v>-0.6</v>
+      </c>
+      <c r="D40">
+        <v>28.9</v>
+      </c>
+      <c r="E40">
+        <v>28.9</v>
+      </c>
+      <c r="F40">
+        <v>7.9</v>
+      </c>
+      <c r="G40">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="H40">
+        <v>30.1</v>
+      </c>
+      <c r="I40">
+        <v>7.1</v>
+      </c>
+      <c r="J40">
+        <v>21.5</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
-      <c r="B41" s="1"/>
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="C41">
+        <v>6.6</v>
+      </c>
+      <c r="D41">
+        <v>32</v>
+      </c>
+      <c r="E41">
+        <v>49.9</v>
+      </c>
+      <c r="F41">
+        <v>24.2</v>
+      </c>
+      <c r="G41">
+        <v>20.7</v>
+      </c>
+      <c r="H41">
+        <v>44.1</v>
+      </c>
+      <c r="I41">
+        <v>8</v>
+      </c>
+      <c r="J41">
+        <v>33.4</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
-      <c r="B42" s="1"/>
+      <c r="A42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="C42">
+        <v>4.2</v>
+      </c>
+      <c r="D42">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="E42">
+        <v>47.9</v>
+      </c>
+      <c r="F42">
+        <v>20.8</v>
+      </c>
+      <c r="G42">
+        <v>22.5</v>
+      </c>
+      <c r="H42">
+        <v>39.6</v>
+      </c>
+      <c r="I42">
+        <v>4.2</v>
+      </c>
+      <c r="J42">
+        <v>33.9</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
-      <c r="B43" s="1"/>
-      <c r="H43" s="25"/>
+      <c r="A43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43">
+        <v>44.5</v>
+      </c>
+      <c r="C43">
+        <v>11.4</v>
+      </c>
+      <c r="D43">
+        <v>29.8</v>
+      </c>
+      <c r="E43">
+        <v>53.8</v>
+      </c>
+      <c r="F43">
+        <v>31.2</v>
+      </c>
+      <c r="G43">
+        <v>17.2</v>
+      </c>
+      <c r="H43">
+        <v>53.6</v>
+      </c>
+      <c r="I43">
+        <v>16</v>
+      </c>
+      <c r="J43">
+        <v>32.4</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
-      <c r="B44" s="1"/>
-      <c r="H44" s="25"/>
+      <c r="A44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44">
+        <v>51.5</v>
+      </c>
+      <c r="C44">
+        <v>13.1</v>
+      </c>
+      <c r="D44">
+        <v>34</v>
+      </c>
+      <c r="E44">
+        <v>50</v>
+      </c>
+      <c r="F44">
+        <v>24.5</v>
+      </c>
+      <c r="G44">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="H44">
+        <v>49.4</v>
+      </c>
+      <c r="I44">
+        <v>17.8</v>
+      </c>
+      <c r="J44">
+        <v>26.8</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
-      <c r="B45" s="1"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
+      <c r="A45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45">
+        <v>42</v>
+      </c>
+      <c r="C45">
+        <v>20.7</v>
+      </c>
+      <c r="D45">
+        <v>17.7</v>
+      </c>
+      <c r="E45">
+        <v>42.1</v>
+      </c>
+      <c r="F45">
+        <v>21.8</v>
+      </c>
+      <c r="G45">
+        <v>16.7</v>
+      </c>
+      <c r="H45">
+        <v>57.3</v>
+      </c>
+      <c r="I45">
+        <v>23.8</v>
+      </c>
+      <c r="J45">
+        <v>27.1</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
-      <c r="B46" s="1"/>
-      <c r="D46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
+      <c r="A46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46">
+        <v>41.8</v>
+      </c>
+      <c r="C46">
+        <v>21.6</v>
+      </c>
+      <c r="D46">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E46">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="F46">
+        <v>21.9</v>
+      </c>
+      <c r="G46">
+        <v>15.4</v>
+      </c>
+      <c r="H46">
+        <v>62.2</v>
+      </c>
+      <c r="I46">
+        <v>27.1</v>
+      </c>
+      <c r="J46">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47">
+        <v>43.4</v>
+      </c>
+      <c r="C47">
+        <v>15.5</v>
+      </c>
+      <c r="D47">
+        <v>24.2</v>
+      </c>
+      <c r="E47">
+        <v>49.6</v>
+      </c>
+      <c r="F47">
+        <v>20.8</v>
+      </c>
+      <c r="G47">
+        <v>23.8</v>
+      </c>
+      <c r="H47">
+        <v>38.9</v>
+      </c>
+      <c r="I47">
+        <v>11.4</v>
+      </c>
+      <c r="J47">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48">
+        <v>26.3</v>
+      </c>
+      <c r="C48">
+        <v>15.1</v>
+      </c>
+      <c r="D48">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E48">
+        <v>26.7</v>
+      </c>
+      <c r="F48">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G48">
+        <v>8.6</v>
+      </c>
+      <c r="H48">
+        <v>30.2</v>
+      </c>
+      <c r="I48">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="J48">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49">
+        <v>26.2</v>
+      </c>
+      <c r="C49">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D49">
+        <v>20.3</v>
+      </c>
+      <c r="E49">
+        <v>27.3</v>
+      </c>
+      <c r="F49">
+        <v>14.8</v>
+      </c>
+      <c r="G49">
+        <v>10.9</v>
+      </c>
+      <c r="H49">
+        <v>51.6</v>
+      </c>
+      <c r="I49">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J49">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="C50">
+        <v>-1.3</v>
+      </c>
+      <c r="D50">
+        <v>37.1</v>
+      </c>
+      <c r="E50">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="F50">
+        <v>12.9</v>
+      </c>
+      <c r="G50">
+        <v>21.2</v>
+      </c>
+      <c r="H50">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="I50">
+        <v>11.5</v>
+      </c>
+      <c r="J50">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51">
+        <v>59.3</v>
+      </c>
+      <c r="C51">
+        <v>13</v>
+      </c>
+      <c r="D51">
+        <v>41</v>
+      </c>
+      <c r="E51">
+        <v>61.3</v>
+      </c>
+      <c r="F51">
+        <v>21.7</v>
+      </c>
+      <c r="G51">
+        <v>32.6</v>
+      </c>
+      <c r="H51">
+        <v>58.4</v>
+      </c>
+      <c r="I51">
+        <v>15.2</v>
+      </c>
+      <c r="J51">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="I54" s="38"/>
+      <c r="J54" s="38"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="1">
+        <v>2005</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2015</v>
+      </c>
+      <c r="E55" s="1">
+        <v>2005</v>
+      </c>
+      <c r="F55" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G55" s="1">
+        <v>2015</v>
+      </c>
+      <c r="H55" s="1">
+        <v>2005</v>
+      </c>
+      <c r="I55" s="1">
+        <v>2010</v>
+      </c>
+      <c r="J55" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>15.2</v>
+      </c>
+      <c r="D56">
+        <v>20.6</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>20.6</v>
+      </c>
+      <c r="G56">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>15.9</v>
+      </c>
+      <c r="J56">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>-0.6</v>
+      </c>
+      <c r="D57">
+        <v>28.9</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>7.9</v>
+      </c>
+      <c r="G57">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>7.1</v>
+      </c>
+      <c r="J57">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>6.6</v>
+      </c>
+      <c r="D58">
+        <v>32</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>24.2</v>
+      </c>
+      <c r="G58">
+        <v>20.7</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>8</v>
+      </c>
+      <c r="J58">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>4.2</v>
+      </c>
+      <c r="D59">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>20.8</v>
+      </c>
+      <c r="G59">
+        <v>22.5</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>4.2</v>
+      </c>
+      <c r="J59">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>11.4</v>
+      </c>
+      <c r="D60">
+        <v>29.8</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>31.2</v>
+      </c>
+      <c r="G60">
+        <v>17.2</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>16</v>
+      </c>
+      <c r="J60">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>13.1</v>
+      </c>
+      <c r="D61">
+        <v>34</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>24.5</v>
+      </c>
+      <c r="G61">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>17.8</v>
+      </c>
+      <c r="J61">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>20.7</v>
+      </c>
+      <c r="D62">
+        <v>17.7</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>21.8</v>
+      </c>
+      <c r="G62">
+        <v>16.7</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>23.8</v>
+      </c>
+      <c r="J62">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>21.6</v>
+      </c>
+      <c r="D63">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>21.9</v>
+      </c>
+      <c r="G63">
+        <v>15.4</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>27.1</v>
+      </c>
+      <c r="J63">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>15.5</v>
+      </c>
+      <c r="D64">
+        <v>24.2</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>20.8</v>
+      </c>
+      <c r="G64">
+        <v>23.8</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>11.4</v>
+      </c>
+      <c r="J64">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>35</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>15.1</v>
+      </c>
+      <c r="D65">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G65">
+        <v>8.6</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="J65">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D66">
+        <v>20.3</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>14.8</v>
+      </c>
+      <c r="G66">
+        <v>10.9</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J66">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>-1.3</v>
+      </c>
+      <c r="D67">
+        <v>37.1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>12.9</v>
+      </c>
+      <c r="G67">
+        <v>21.2</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>11.5</v>
+      </c>
+      <c r="J67">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>13</v>
+      </c>
+      <c r="D68">
+        <v>41</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>21.7</v>
+      </c>
+      <c r="G68">
+        <v>32.6</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>15.2</v>
+      </c>
+      <c r="J68">
+        <v>37.4</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:J54"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:J37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100275DB39F1BA906479FA1BA90246AFEA0" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="824463f8d7328acb7d3f3f00a5bb3f83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4a84fcbb-a8b7-498e-ba48-cc75f96ce2ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="55eada1b88a8e562b6c25cc30c580236" ns3:_="">
     <xsd:import namespace="4a84fcbb-a8b7-498e-ba48-cc75f96ce2ad"/>
@@ -17186,22 +20237,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F73EA17-884A-4BD0-A35A-DA27C5309908}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B151E57-6ACC-4260-8927-636EE7EC59B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{451C3D6A-66FA-43B3-8BF0-B06A9DF1AB04}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17217,21 +20270,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B151E57-6ACC-4260-8927-636EE7EC59B8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F73EA17-884A-4BD0-A35A-DA27C5309908}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/charts/ChartPlan.xlsx
+++ b/charts/ChartPlan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mapeyton\OneDrive - American Medical Association\Documents\R\NCCS\htmltest\charts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MattP\Desktop\Capstone\charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="114_{E457A1DC-1E81-43F0-9457-1A1F37AC153A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{80B4792E-71B1-4E79-9167-921818193C21}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626DFDC6-4789-4527-827C-7D16F53BB9DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="0" windowWidth="23040" windowHeight="15600" activeTab="5" xr2:uid="{0C459248-39B4-4EA6-A46F-BB1EB6E6E23D}"/>
+    <workbookView xWindow="-18240" yWindow="3165" windowWidth="24270" windowHeight="15435" firstSheet="3" activeTab="6" xr2:uid="{B37984B5-7E5B-4A29-BA31-35AC76D76266}"/>
   </bookViews>
   <sheets>
     <sheet name="Scratch" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Figure 2 Chart Drafts" sheetId="4" r:id="rId4"/>
     <sheet name="Figure 3 Chart Drafts" sheetId="5" r:id="rId5"/>
     <sheet name="Figure 3 Small Multiples" sheetId="6" r:id="rId6"/>
+    <sheet name="Final FIgure" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="62">
   <si>
     <t>Figure 1.1</t>
   </si>
@@ -228,10 +229,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -386,7 +388,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -454,6 +456,9 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -466,9 +471,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3160,6 +3165,415 @@
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:bubbleChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Final FIgure'!$A$6:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Arts</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Education</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Higher education</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Other education</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Environment and animals</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Health</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Hospitals and primary care facilities</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Other health care</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Human services</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>International</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Other public and social benefit</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Religion related</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Final FIgure'!$G$6:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>40.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>354.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>230.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>123.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1160.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>977.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>183.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>234.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>111.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Final FIgure'!$M$6:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>127.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1128.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>736.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>392.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1574.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1281.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>292.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>357.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>347.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>'Final FIgure'!$D$6:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>31429</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54214</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14591</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38861</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7113</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31748</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>110801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6927</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37478</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20443</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8902-4851-84D3-3ADC2BA2316C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:bubbleScale val="100"/>
+        <c:showNegBubbles val="0"/>
+        <c:axId val="901525551"/>
+        <c:axId val="906711423"/>
+      </c:bubbleChart>
+      <c:valAx>
+        <c:axId val="901525551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="906711423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="906711423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="901525551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -9155,6 +9569,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -13201,6 +13655,541 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="269">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -13806,6 +14795,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{420B0C38-C5A7-4930-B1E2-E23391C10D5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6B8EE173-36A0-40AB-BF5D-3500CF8082AF}" name="Table1" displayName="Table1" ref="AE2:AF14" totalsRowShown="0">
   <autoFilter ref="AE2:AF14" xr:uid="{1466E4F8-8320-40A8-9835-2F447FBED1D7}"/>
@@ -14119,9 +15149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0DEE02-2A07-419E-89E0-4BC8C3BA8DCD}">
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14514,17 +15542,17 @@
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
-      <c r="D45" s="36" t="s">
+      <c r="D45" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="37" t="s">
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
     </row>
     <row r="46" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
@@ -14939,26 +15967,26 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B62" s="35" t="s">
+      <c r="B62" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35" t="s">
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35" t="s">
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="35" t="s">
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="L62" s="35"/>
-      <c r="M62" s="35"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="36"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
@@ -15540,21 +16568,21 @@
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B80" s="35" t="s">
+      <c r="B80" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C80" s="35"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="35" t="s">
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="F80" s="35"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="35" t="s">
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="I80" s="35"/>
-      <c r="J80" s="35"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="36"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
@@ -16022,9 +17050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A581BF45-EA43-4AD2-8E6C-8A5DFAE1B63F}">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46:M47"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16292,17 +17318,17 @@
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="37" t="s">
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
     </row>
     <row r="30" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
@@ -16717,26 +17743,26 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35" t="s">
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35" t="s">
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35" t="s">
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="L46" s="35"/>
-      <c r="M46" s="35"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
@@ -17318,21 +18344,21 @@
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B64" s="35" t="s">
+      <c r="B64" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35" t="s">
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35" t="s">
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
@@ -17799,9 +18825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7956B4E-73ED-4D65-9DF2-2F6052636FA7}">
   <dimension ref="A1:A53"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -17835,9 +18859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7CE6E8E-E17A-4F04-80EC-7A41E93C4351}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -17856,9 +18878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258943CD-F25C-4DDA-A140-1BFB789BB379}">
   <dimension ref="A1:AF15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AG33" sqref="AG33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18212,9 +19232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27925631-6CA6-4B9F-BBBE-93B528B1F2C8}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="M97" sqref="M97"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18222,21 +19240,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
@@ -19094,26 +20112,26 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="35" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38" t="s">
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38" t="s">
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -19565,21 +20583,21 @@
     </row>
     <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38" t="s">
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38" t="s">
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="I54" s="38"/>
-      <c r="J54" s="38"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
     </row>
     <row r="55" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
@@ -20044,6 +21062,626 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ADF7424-F237-4DFF-A4ED-F32D0422FAA1}">
+  <dimension ref="A3:M17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>2005</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2015</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2005</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2015</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2005</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2010</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2015</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2005</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2010</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="40">
+        <v>312779</v>
+      </c>
+      <c r="C5" s="40">
+        <v>293265</v>
+      </c>
+      <c r="D5" s="40">
+        <v>314744</v>
+      </c>
+      <c r="E5" s="40">
+        <v>1424</v>
+      </c>
+      <c r="F5" s="40">
+        <v>1641</v>
+      </c>
+      <c r="G5" s="40">
+        <v>1978.6</v>
+      </c>
+      <c r="H5" s="40">
+        <v>1307.7</v>
+      </c>
+      <c r="I5" s="40">
+        <v>1576.9</v>
+      </c>
+      <c r="J5" s="40">
+        <v>1838.9</v>
+      </c>
+      <c r="K5" s="40">
+        <v>2506.4</v>
+      </c>
+      <c r="L5" s="40">
+        <v>2904.1</v>
+      </c>
+      <c r="M5" s="40">
+        <v>3668.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="41">
+        <v>34483</v>
+      </c>
+      <c r="C6" s="41">
+        <v>29409</v>
+      </c>
+      <c r="D6" s="42">
+        <v>31429</v>
+      </c>
+      <c r="E6" s="41">
+        <v>31.7</v>
+      </c>
+      <c r="F6" s="41">
+        <v>31.5</v>
+      </c>
+      <c r="G6" s="41">
+        <v>40.6</v>
+      </c>
+      <c r="H6" s="41">
+        <v>27.7</v>
+      </c>
+      <c r="I6" s="41">
+        <v>29.9</v>
+      </c>
+      <c r="J6" s="41">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="K6" s="41">
+        <v>98.3</v>
+      </c>
+      <c r="L6" s="41">
+        <v>105.3</v>
+      </c>
+      <c r="M6" s="41">
+        <v>127.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="41">
+        <v>56030</v>
+      </c>
+      <c r="C7" s="41">
+        <v>50387</v>
+      </c>
+      <c r="D7" s="42">
+        <v>54214</v>
+      </c>
+      <c r="E7" s="41">
+        <v>251.7</v>
+      </c>
+      <c r="F7" s="41">
+        <v>268.39999999999998</v>
+      </c>
+      <c r="G7" s="41">
+        <v>354.3</v>
+      </c>
+      <c r="H7" s="41">
+        <v>210.5</v>
+      </c>
+      <c r="I7" s="41">
+        <v>261.5</v>
+      </c>
+      <c r="J7" s="41">
+        <v>315.5</v>
+      </c>
+      <c r="K7" s="41">
+        <v>783.1</v>
+      </c>
+      <c r="L7" s="41">
+        <v>846.1</v>
+      </c>
+      <c r="M7" s="41">
+        <v>1128.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="41">
+        <v>1869</v>
+      </c>
+      <c r="C8" s="41">
+        <v>2040</v>
+      </c>
+      <c r="D8" s="42">
+        <v>2153</v>
+      </c>
+      <c r="E8" s="41">
+        <v>166.3</v>
+      </c>
+      <c r="F8" s="41">
+        <v>173.3</v>
+      </c>
+      <c r="G8" s="41">
+        <v>230.9</v>
+      </c>
+      <c r="H8" s="41">
+        <v>140.19999999999999</v>
+      </c>
+      <c r="I8" s="41">
+        <v>169.3</v>
+      </c>
+      <c r="J8" s="41">
+        <v>207.4</v>
+      </c>
+      <c r="K8" s="41">
+        <v>527.6</v>
+      </c>
+      <c r="L8" s="41">
+        <v>549.70000000000005</v>
+      </c>
+      <c r="M8" s="41">
+        <v>736.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="41">
+        <v>54161</v>
+      </c>
+      <c r="C9" s="41">
+        <v>48347</v>
+      </c>
+      <c r="D9" s="42">
+        <v>52061</v>
+      </c>
+      <c r="E9" s="41">
+        <v>85.4</v>
+      </c>
+      <c r="F9" s="41">
+        <v>95.1</v>
+      </c>
+      <c r="G9" s="41">
+        <v>123.4</v>
+      </c>
+      <c r="H9" s="41">
+        <v>70.3</v>
+      </c>
+      <c r="I9" s="41">
+        <v>92.2</v>
+      </c>
+      <c r="J9" s="41">
+        <v>108.1</v>
+      </c>
+      <c r="K9" s="41">
+        <v>255.5</v>
+      </c>
+      <c r="L9" s="41">
+        <v>296.39999999999998</v>
+      </c>
+      <c r="M9" s="41">
+        <v>392.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="41">
+        <v>12721</v>
+      </c>
+      <c r="C10" s="41">
+        <v>12715</v>
+      </c>
+      <c r="D10" s="42">
+        <v>14591</v>
+      </c>
+      <c r="E10" s="41">
+        <v>13</v>
+      </c>
+      <c r="F10" s="41">
+        <v>14.7</v>
+      </c>
+      <c r="G10" s="41">
+        <v>19.7</v>
+      </c>
+      <c r="H10" s="41">
+        <v>11</v>
+      </c>
+      <c r="I10" s="41">
+        <v>13.7</v>
+      </c>
+      <c r="J10" s="41">
+        <v>16.5</v>
+      </c>
+      <c r="K10" s="41">
+        <v>32</v>
+      </c>
+      <c r="L10" s="41">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="M10" s="41">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="41">
+        <v>40774</v>
+      </c>
+      <c r="C11" s="41">
+        <v>38840</v>
+      </c>
+      <c r="D11" s="42">
+        <v>38861</v>
+      </c>
+      <c r="E11" s="41">
+        <v>817.2</v>
+      </c>
+      <c r="F11" s="41">
+        <v>986</v>
+      </c>
+      <c r="G11" s="41">
+        <v>1160.5</v>
+      </c>
+      <c r="H11" s="41">
+        <v>775.8</v>
+      </c>
+      <c r="I11" s="41">
+        <v>944.6</v>
+      </c>
+      <c r="J11" s="41">
+        <v>1102.3</v>
+      </c>
+      <c r="K11" s="41">
+        <v>1000.8</v>
+      </c>
+      <c r="L11" s="41">
+        <v>1238.9000000000001</v>
+      </c>
+      <c r="M11" s="41">
+        <v>1574.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="41">
+        <v>7150</v>
+      </c>
+      <c r="C12" s="41">
+        <v>7229</v>
+      </c>
+      <c r="D12" s="42">
+        <v>7113</v>
+      </c>
+      <c r="E12" s="41">
+        <v>689.3</v>
+      </c>
+      <c r="F12" s="41">
+        <v>838.3</v>
+      </c>
+      <c r="G12" s="41">
+        <v>977.1</v>
+      </c>
+      <c r="H12" s="41">
+        <v>658.4</v>
+      </c>
+      <c r="I12" s="41">
+        <v>802.8</v>
+      </c>
+      <c r="J12" s="41">
+        <v>926.7</v>
+      </c>
+      <c r="K12" s="41">
+        <v>790.1</v>
+      </c>
+      <c r="L12" s="41">
+        <v>1004.2</v>
+      </c>
+      <c r="M12" s="41">
+        <v>1281.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="41">
+        <v>33624</v>
+      </c>
+      <c r="C13" s="41">
+        <v>31611</v>
+      </c>
+      <c r="D13" s="42">
+        <v>31748</v>
+      </c>
+      <c r="E13" s="41">
+        <v>127.9</v>
+      </c>
+      <c r="F13" s="41">
+        <v>147.69999999999999</v>
+      </c>
+      <c r="G13" s="41">
+        <v>183.4</v>
+      </c>
+      <c r="H13" s="41">
+        <v>117.4</v>
+      </c>
+      <c r="I13" s="41">
+        <v>141.80000000000001</v>
+      </c>
+      <c r="J13" s="41">
+        <v>175.6</v>
+      </c>
+      <c r="K13" s="41">
+        <v>210.7</v>
+      </c>
+      <c r="L13" s="41">
+        <v>234.7</v>
+      </c>
+      <c r="M13" s="41">
+        <v>292.60000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="41">
+        <v>105938</v>
+      </c>
+      <c r="C14" s="41">
+        <v>103451</v>
+      </c>
+      <c r="D14" s="42">
+        <v>110801</v>
+      </c>
+      <c r="E14" s="41">
+        <v>185.3</v>
+      </c>
+      <c r="F14" s="41">
+        <v>213.3</v>
+      </c>
+      <c r="G14" s="41">
+        <v>234.1</v>
+      </c>
+      <c r="H14" s="41">
+        <v>176.8</v>
+      </c>
+      <c r="I14" s="41">
+        <v>206.2</v>
+      </c>
+      <c r="J14" s="41">
+        <v>224</v>
+      </c>
+      <c r="K14" s="41">
+        <v>274.3</v>
+      </c>
+      <c r="L14" s="41">
+        <v>321.2</v>
+      </c>
+      <c r="M14" s="41">
+        <v>357.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="41">
+        <v>5691</v>
+      </c>
+      <c r="C15" s="41">
+        <v>6066</v>
+      </c>
+      <c r="D15" s="42">
+        <v>6927</v>
+      </c>
+      <c r="E15" s="41">
+        <v>30.5</v>
+      </c>
+      <c r="F15" s="41">
+        <v>32</v>
+      </c>
+      <c r="G15" s="41">
+        <v>38.5</v>
+      </c>
+      <c r="H15" s="41">
+        <v>27.1</v>
+      </c>
+      <c r="I15" s="41">
+        <v>31.1</v>
+      </c>
+      <c r="J15" s="41">
+        <v>34.5</v>
+      </c>
+      <c r="K15" s="41">
+        <v>28.5</v>
+      </c>
+      <c r="L15" s="41">
+        <v>31.3</v>
+      </c>
+      <c r="M15" s="41">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="41">
+        <v>38381</v>
+      </c>
+      <c r="C16" s="41">
+        <v>34595</v>
+      </c>
+      <c r="D16" s="42">
+        <v>37478</v>
+      </c>
+      <c r="E16" s="41">
+        <v>82.3</v>
+      </c>
+      <c r="F16" s="41">
+        <v>81.2</v>
+      </c>
+      <c r="G16" s="41">
+        <v>111.3</v>
+      </c>
+      <c r="H16" s="41">
+        <v>68.2</v>
+      </c>
+      <c r="I16" s="41">
+        <v>77</v>
+      </c>
+      <c r="J16" s="41">
+        <v>93.3</v>
+      </c>
+      <c r="K16" s="41">
+        <v>262.5</v>
+      </c>
+      <c r="L16" s="41">
+        <v>292.60000000000002</v>
+      </c>
+      <c r="M16" s="41">
+        <v>347.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="41">
+        <v>18761</v>
+      </c>
+      <c r="C17" s="41">
+        <v>17802</v>
+      </c>
+      <c r="D17" s="42">
+        <v>20443</v>
+      </c>
+      <c r="E17" s="41">
+        <v>12.3</v>
+      </c>
+      <c r="F17" s="41">
+        <v>13.9</v>
+      </c>
+      <c r="G17" s="41">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="H17" s="41">
+        <v>10.6</v>
+      </c>
+      <c r="I17" s="41">
+        <v>12.9</v>
+      </c>
+      <c r="J17" s="41">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="K17" s="41">
+        <v>26.9</v>
+      </c>
+      <c r="L17" s="41">
+        <v>31</v>
+      </c>
+      <c r="M17" s="41">
+        <v>42.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -20054,12 +21692,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100275DB39F1BA906479FA1BA90246AFEA0" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="824463f8d7328acb7d3f3f00a5bb3f83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4a84fcbb-a8b7-498e-ba48-cc75f96ce2ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="55eada1b88a8e562b6c25cc30c580236" ns3:_="">
     <xsd:import namespace="4a84fcbb-a8b7-498e-ba48-cc75f96ce2ad"/>
@@ -20237,6 +21869,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F73EA17-884A-4BD0-A35A-DA27C5309908}">
   <ds:schemaRefs>
@@ -20246,15 +21884,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B151E57-6ACC-4260-8927-636EE7EC59B8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{451C3D6A-66FA-43B3-8BF0-B06A9DF1AB04}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20270,4 +21899,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B151E57-6ACC-4260-8927-636EE7EC59B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/charts/ChartPlan.xlsx
+++ b/charts/ChartPlan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MattP\Desktop\Capstone\charts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mapeyton\OneDrive - American Medical Association\Desktop\Site\charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626DFDC6-4789-4527-827C-7D16F53BB9DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18240" yWindow="3165" windowWidth="24270" windowHeight="15435" firstSheet="3" activeTab="6" xr2:uid="{B37984B5-7E5B-4A29-BA31-35AC76D76266}"/>
+    <workbookView minimized="1" xWindow="11790" yWindow="0" windowWidth="17010" windowHeight="15600" firstSheet="3" activeTab="6" xr2:uid="{B37984B5-7E5B-4A29-BA31-35AC76D76266}"/>
   </bookViews>
   <sheets>
     <sheet name="Scratch" sheetId="1" r:id="rId1"/>
@@ -233,7 +233,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -459,6 +459,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -471,9 +474,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -15542,17 +15542,17 @@
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
-      <c r="D45" s="37" t="s">
+      <c r="D45" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="38" t="s">
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
     </row>
     <row r="46" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
@@ -15967,26 +15967,26 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B62" s="36" t="s">
+      <c r="B62" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36" t="s">
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36" t="s">
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="I62" s="36"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="36" t="s">
+      <c r="I62" s="39"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="L62" s="36"/>
-      <c r="M62" s="36"/>
+      <c r="L62" s="39"/>
+      <c r="M62" s="39"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
@@ -16568,21 +16568,21 @@
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B80" s="36" t="s">
+      <c r="B80" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36" t="s">
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36" t="s">
+      <c r="F80" s="39"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="I80" s="36"/>
-      <c r="J80" s="36"/>
+      <c r="I80" s="39"/>
+      <c r="J80" s="39"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
@@ -17318,17 +17318,17 @@
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="38" t="s">
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
     </row>
     <row r="30" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
@@ -17743,26 +17743,26 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36" t="s">
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36" t="s">
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36" t="s">
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
@@ -18344,21 +18344,21 @@
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B64" s="36" t="s">
+      <c r="B64" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36" t="s">
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="36" t="s">
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="I64" s="36"/>
-      <c r="J64" s="36"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="39"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
@@ -19240,21 +19240,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
@@ -20117,21 +20117,21 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39" t="s">
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39" t="s">
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -20583,21 +20583,21 @@
     </row>
     <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39" t="s">
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39" t="s">
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="I54" s="39"/>
-      <c r="J54" s="39"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
     </row>
     <row r="55" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
@@ -21067,7 +21067,7 @@
   <dimension ref="A3:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="G6" sqref="G6:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21078,26 +21078,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36" t="s">
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36" t="s">
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
@@ -21141,40 +21141,40 @@
       <c r="A5" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="36">
         <v>312779</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="36">
         <v>293265</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="36">
         <v>314744</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="36">
         <v>1424</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="36">
         <v>1641</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="36">
         <v>1978.6</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="36">
         <v>1307.7</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="36">
         <v>1576.9</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="36">
         <v>1838.9</v>
       </c>
-      <c r="K5" s="40">
+      <c r="K5" s="36">
         <v>2506.4</v>
       </c>
-      <c r="L5" s="40">
+      <c r="L5" s="36">
         <v>2904.1</v>
       </c>
-      <c r="M5" s="40">
+      <c r="M5" s="36">
         <v>3668.6</v>
       </c>
     </row>
@@ -21182,40 +21182,40 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="37">
         <v>34483</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="37">
         <v>29409</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="38">
         <v>31429</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="37">
         <v>31.7</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="37">
         <v>31.5</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="37">
         <v>40.6</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="37">
         <v>27.7</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="37">
         <v>29.9</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="37">
         <v>35.700000000000003</v>
       </c>
-      <c r="K6" s="41">
+      <c r="K6" s="37">
         <v>98.3</v>
       </c>
-      <c r="L6" s="41">
+      <c r="L6" s="37">
         <v>105.3</v>
       </c>
-      <c r="M6" s="41">
+      <c r="M6" s="37">
         <v>127.9</v>
       </c>
     </row>
@@ -21223,40 +21223,40 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="37">
         <v>56030</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="37">
         <v>50387</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="38">
         <v>54214</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="37">
         <v>251.7</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="37">
         <v>268.39999999999998</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="37">
         <v>354.3</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="37">
         <v>210.5</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="37">
         <v>261.5</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="37">
         <v>315.5</v>
       </c>
-      <c r="K7" s="41">
+      <c r="K7" s="37">
         <v>783.1</v>
       </c>
-      <c r="L7" s="41">
+      <c r="L7" s="37">
         <v>846.1</v>
       </c>
-      <c r="M7" s="41">
+      <c r="M7" s="37">
         <v>1128.8</v>
       </c>
     </row>
@@ -21264,40 +21264,40 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="37">
         <v>1869</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="37">
         <v>2040</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="38">
         <v>2153</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="37">
         <v>166.3</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="37">
         <v>173.3</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="37">
         <v>230.9</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="37">
         <v>140.19999999999999</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="37">
         <v>169.3</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="37">
         <v>207.4</v>
       </c>
-      <c r="K8" s="41">
+      <c r="K8" s="37">
         <v>527.6</v>
       </c>
-      <c r="L8" s="41">
+      <c r="L8" s="37">
         <v>549.70000000000005</v>
       </c>
-      <c r="M8" s="41">
+      <c r="M8" s="37">
         <v>736.3</v>
       </c>
     </row>
@@ -21305,40 +21305,40 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="37">
         <v>54161</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="37">
         <v>48347</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="38">
         <v>52061</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="37">
         <v>85.4</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="37">
         <v>95.1</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="37">
         <v>123.4</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="37">
         <v>70.3</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="37">
         <v>92.2</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="37">
         <v>108.1</v>
       </c>
-      <c r="K9" s="41">
+      <c r="K9" s="37">
         <v>255.5</v>
       </c>
-      <c r="L9" s="41">
+      <c r="L9" s="37">
         <v>296.39999999999998</v>
       </c>
-      <c r="M9" s="41">
+      <c r="M9" s="37">
         <v>392.5</v>
       </c>
     </row>
@@ -21346,40 +21346,40 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="37">
         <v>12721</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="37">
         <v>12715</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="38">
         <v>14591</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="37">
         <v>13</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="37">
         <v>14.7</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="37">
         <v>19.7</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="37">
         <v>11</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="37">
         <v>13.7</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="37">
         <v>16.5</v>
       </c>
-      <c r="K10" s="41">
+      <c r="K10" s="37">
         <v>32</v>
       </c>
-      <c r="L10" s="41">
+      <c r="L10" s="37">
         <v>37.700000000000003</v>
       </c>
-      <c r="M10" s="41">
+      <c r="M10" s="37">
         <v>47.8</v>
       </c>
     </row>
@@ -21387,40 +21387,40 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11" s="37">
         <v>40774</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="37">
         <v>38840</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="38">
         <v>38861</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="37">
         <v>817.2</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="37">
         <v>986</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="37">
         <v>1160.5</v>
       </c>
-      <c r="H11" s="41">
+      <c r="H11" s="37">
         <v>775.8</v>
       </c>
-      <c r="I11" s="41">
+      <c r="I11" s="37">
         <v>944.6</v>
       </c>
-      <c r="J11" s="41">
+      <c r="J11" s="37">
         <v>1102.3</v>
       </c>
-      <c r="K11" s="41">
+      <c r="K11" s="37">
         <v>1000.8</v>
       </c>
-      <c r="L11" s="41">
+      <c r="L11" s="37">
         <v>1238.9000000000001</v>
       </c>
-      <c r="M11" s="41">
+      <c r="M11" s="37">
         <v>1574.1</v>
       </c>
     </row>
@@ -21428,40 +21428,40 @@
       <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="37">
         <v>7150</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="37">
         <v>7229</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="38">
         <v>7113</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="37">
         <v>689.3</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="37">
         <v>838.3</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="37">
         <v>977.1</v>
       </c>
-      <c r="H12" s="41">
+      <c r="H12" s="37">
         <v>658.4</v>
       </c>
-      <c r="I12" s="41">
+      <c r="I12" s="37">
         <v>802.8</v>
       </c>
-      <c r="J12" s="41">
+      <c r="J12" s="37">
         <v>926.7</v>
       </c>
-      <c r="K12" s="41">
+      <c r="K12" s="37">
         <v>790.1</v>
       </c>
-      <c r="L12" s="41">
+      <c r="L12" s="37">
         <v>1004.2</v>
       </c>
-      <c r="M12" s="41">
+      <c r="M12" s="37">
         <v>1281.5</v>
       </c>
     </row>
@@ -21469,40 +21469,40 @@
       <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13" s="37">
         <v>33624</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="37">
         <v>31611</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="38">
         <v>31748</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="37">
         <v>127.9</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="37">
         <v>147.69999999999999</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="37">
         <v>183.4</v>
       </c>
-      <c r="H13" s="41">
+      <c r="H13" s="37">
         <v>117.4</v>
       </c>
-      <c r="I13" s="41">
+      <c r="I13" s="37">
         <v>141.80000000000001</v>
       </c>
-      <c r="J13" s="41">
+      <c r="J13" s="37">
         <v>175.6</v>
       </c>
-      <c r="K13" s="41">
+      <c r="K13" s="37">
         <v>210.7</v>
       </c>
-      <c r="L13" s="41">
+      <c r="L13" s="37">
         <v>234.7</v>
       </c>
-      <c r="M13" s="41">
+      <c r="M13" s="37">
         <v>292.60000000000002</v>
       </c>
     </row>
@@ -21510,40 +21510,40 @@
       <c r="A14" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="37">
         <v>105938</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="37">
         <v>103451</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="38">
         <v>110801</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="37">
         <v>185.3</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="37">
         <v>213.3</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="37">
         <v>234.1</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="37">
         <v>176.8</v>
       </c>
-      <c r="I14" s="41">
+      <c r="I14" s="37">
         <v>206.2</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="37">
         <v>224</v>
       </c>
-      <c r="K14" s="41">
+      <c r="K14" s="37">
         <v>274.3</v>
       </c>
-      <c r="L14" s="41">
+      <c r="L14" s="37">
         <v>321.2</v>
       </c>
-      <c r="M14" s="41">
+      <c r="M14" s="37">
         <v>357.1</v>
       </c>
     </row>
@@ -21551,40 +21551,40 @@
       <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15" s="37">
         <v>5691</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="37">
         <v>6066</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="38">
         <v>6927</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="37">
         <v>30.5</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15" s="37">
         <v>32</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="37">
         <v>38.5</v>
       </c>
-      <c r="H15" s="41">
+      <c r="H15" s="37">
         <v>27.1</v>
       </c>
-      <c r="I15" s="41">
+      <c r="I15" s="37">
         <v>31.1</v>
       </c>
-      <c r="J15" s="41">
+      <c r="J15" s="37">
         <v>34.5</v>
       </c>
-      <c r="K15" s="41">
+      <c r="K15" s="37">
         <v>28.5</v>
       </c>
-      <c r="L15" s="41">
+      <c r="L15" s="37">
         <v>31.3</v>
       </c>
-      <c r="M15" s="41">
+      <c r="M15" s="37">
         <v>43.2</v>
       </c>
     </row>
@@ -21592,40 +21592,40 @@
       <c r="A16" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="37">
         <v>38381</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="37">
         <v>34595</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="38">
         <v>37478</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="37">
         <v>82.3</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="37">
         <v>81.2</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="37">
         <v>111.3</v>
       </c>
-      <c r="H16" s="41">
+      <c r="H16" s="37">
         <v>68.2</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I16" s="37">
         <v>77</v>
       </c>
-      <c r="J16" s="41">
+      <c r="J16" s="37">
         <v>93.3</v>
       </c>
-      <c r="K16" s="41">
+      <c r="K16" s="37">
         <v>262.5</v>
       </c>
-      <c r="L16" s="41">
+      <c r="L16" s="37">
         <v>292.60000000000002</v>
       </c>
-      <c r="M16" s="41">
+      <c r="M16" s="37">
         <v>347.1</v>
       </c>
     </row>
@@ -21633,40 +21633,40 @@
       <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17" s="37">
         <v>18761</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="37">
         <v>17802</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="38">
         <v>20443</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="37">
         <v>12.3</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="37">
         <v>13.9</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="37">
         <v>19.600000000000001</v>
       </c>
-      <c r="H17" s="41">
+      <c r="H17" s="37">
         <v>10.6</v>
       </c>
-      <c r="I17" s="41">
+      <c r="I17" s="37">
         <v>12.9</v>
       </c>
-      <c r="J17" s="41">
+      <c r="J17" s="37">
         <v>17.100000000000001</v>
       </c>
-      <c r="K17" s="41">
+      <c r="K17" s="37">
         <v>26.9</v>
       </c>
-      <c r="L17" s="41">
+      <c r="L17" s="37">
         <v>31</v>
       </c>
-      <c r="M17" s="41">
+      <c r="M17" s="37">
         <v>42.6</v>
       </c>
     </row>
@@ -21683,12 +21683,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21870,15 +21867,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F73EA17-884A-4BD0-A35A-DA27C5309908}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B151E57-6ACC-4260-8927-636EE7EC59B8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -21902,10 +21903,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B151E57-6ACC-4260-8927-636EE7EC59B8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F73EA17-884A-4BD0-A35A-DA27C5309908}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>